--- a/plans.xlsx
+++ b/plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18945228-9A2F-427C-AFC8-84B1D72CD75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842741F-01F4-4EA1-BA62-DEBAA08D54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="2145" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="914">
   <si>
     <t>taskId</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>bert_score</t>
+  </si>
+  <si>
+    <t>TF-IDF_score</t>
   </si>
   <si>
     <t>00d579ea-0889-4fd9-a771-2c8d79835c8d</t>
@@ -1091,6 +1094,9 @@
   </si>
   <si>
     <t>['Use search engine to search for "British Museum search collection" and navigate to the British Museum\'s collection search webpage.', 'Select "Museum number" as search field and "2012,5015.17" in text box, then run search.', 'Open the page for the single result and note that the description says that this is the shell of an individual of the Nassa gibbosula species.', 'Use search engine to search for "Nassa gibbosula".', 'Note that according to the search result from the World Register of Marine Species website, Nassa gibbosula is not an accepted species name.', 'Open the page for Nassa gibbosula on the World Register of Marine Species website.', 'Scan the page and note that the accepted species name is Tritia gibbosula.', 'Use search engine to search for "Science Advances 2021 Tritia gibbosula".', 'Find that the top result is an article from 2021 in Science Advances titled "Early Middle Stone Age personal ornaments from Bizmoune Cave, Essaouira, Morocco".', 'Scan abstract and note that the article discusses beads made from Tritia gibbosula shells that date to at least 142 thousand years ago, giving a final answer of 142.']</t>
+  </si>
+  <si>
+    <t>tensor([[0.9005]])</t>
   </si>
   <si>
     <t>366e2f2b-8632-4ef2-81eb-bc3877489217</t>
@@ -5099,10 +5105,6 @@
   </si>
   <si>
     <t>tensor([[0.7592]])</t>
-  </si>
-  <si>
-    <t>tensor([[0.9005]])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5473,24 +5475,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.75" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5512,2995 +5509,3388 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0.39983737106375872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>0.61105237245239741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>0.41358610255653921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>0.30288347296873058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>0.49090772460462562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>0.32540328874898639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>0.53695486117109603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <v>0.30320373299521181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>0.58939132642189884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>0.66887594950203222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="H12">
+        <v>0.5228515709819348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="H13">
+        <v>0.62992446316119854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="H14">
+        <v>0.55312630087976122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="H15">
+        <v>0.25422770165172648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>0.66932121558126079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="H17">
+        <v>0.43069048152864869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.39245557046077129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="H19">
+        <v>0.6031316863169166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>0.49009442898195338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="H21">
+        <v>0.43082219529267801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="H22">
+        <v>0.41671930917468142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="H23">
+        <v>0.68869094050972779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="H24">
+        <v>0.42950540125557168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+      <c r="H25">
+        <v>0.51382983367712631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+      <c r="H26">
+        <v>0.70061172858707976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="H27">
+        <v>0.67103741923118154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="H28">
+        <v>0.61622025848841788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29">
+        <v>0.58465855717131754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30">
+        <v>0.29741558508008248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31">
+        <v>0.53861785620393698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32">
+        <v>0.65846879845466499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33">
+        <v>0.50181524031112656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34">
+        <v>0.4485566103440134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>245</v>
+      </c>
+      <c r="H35">
+        <v>0.57856675480169406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36">
+        <v>0.23257174673827219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37">
+        <v>0.47386011422050012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38">
+        <v>0.60872989562140534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39">
+        <v>0.52264079632278049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>280</v>
+      </c>
+      <c r="H40">
+        <v>0.58222169181238226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41">
+        <v>0.48942725955997041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42">
+        <v>0.54477745837210423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43">
+        <v>0.57462312334533261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>308</v>
+      </c>
+      <c r="H44">
+        <v>0.46394630424724231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>315</v>
+      </c>
+      <c r="H45">
+        <v>0.42014614330981698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46">
+        <v>0.4107202457593459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>329</v>
+      </c>
+      <c r="H47">
+        <v>0.58620967484593278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>336</v>
+      </c>
+      <c r="H48">
+        <v>0.60408026722668673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s">
+        <v>338</v>
+      </c>
+      <c r="C49" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" t="s">
+        <v>340</v>
+      </c>
+      <c r="E49" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49">
+        <v>0.63598502080503239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" t="s">
+        <v>347</v>
+      </c>
+      <c r="E50" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>350</v>
+      </c>
+      <c r="H50">
+        <v>0.46353007091387649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" t="s">
+        <v>354</v>
+      </c>
+      <c r="E51" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" t="s">
+        <v>357</v>
+      </c>
+      <c r="H51">
+        <v>0.45100808392920938</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E52" t="s">
+        <v>362</v>
+      </c>
+      <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>364</v>
+      </c>
+      <c r="H52">
+        <v>0.54676087101167914</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s">
+        <v>366</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53">
+        <v>0.30182233723816371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" t="s">
+        <v>374</v>
+      </c>
+      <c r="D54" t="s">
+        <v>375</v>
+      </c>
+      <c r="E54" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" t="s">
+        <v>378</v>
+      </c>
+      <c r="H54">
+        <v>0.44571172807720372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" t="s">
+        <v>383</v>
+      </c>
+      <c r="F55" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" t="s">
         <v>196</v>
       </c>
-      <c r="B29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H55">
+        <v>0.39748830901651339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>385</v>
+      </c>
+      <c r="B56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>391</v>
+      </c>
+      <c r="H56">
+        <v>0.45620191602893911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>392</v>
+      </c>
+      <c r="B57" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" t="s">
+        <v>394</v>
+      </c>
+      <c r="D57" t="s">
+        <v>395</v>
+      </c>
+      <c r="E57" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" t="s">
+        <v>398</v>
+      </c>
+      <c r="H57">
+        <v>0.60167451968863805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B58" t="s">
+        <v>400</v>
+      </c>
+      <c r="C58" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" t="s">
+        <v>403</v>
+      </c>
+      <c r="F58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H58">
+        <v>0.31320311480281948</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B59" t="s">
+        <v>407</v>
+      </c>
+      <c r="C59" t="s">
+        <v>408</v>
+      </c>
+      <c r="D59" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" t="s">
+        <v>410</v>
+      </c>
+      <c r="F59" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" t="s">
+        <v>412</v>
+      </c>
+      <c r="H59">
+        <v>0.43223419286295123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" t="s">
+        <v>414</v>
+      </c>
+      <c r="C60" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" t="s">
+        <v>416</v>
+      </c>
+      <c r="E60" t="s">
+        <v>417</v>
+      </c>
+      <c r="F60" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" t="s">
+        <v>419</v>
+      </c>
+      <c r="H60">
+        <v>0.51179772130935597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>420</v>
+      </c>
+      <c r="B61" t="s">
+        <v>421</v>
+      </c>
+      <c r="C61" t="s">
+        <v>422</v>
+      </c>
+      <c r="D61" t="s">
+        <v>423</v>
+      </c>
+      <c r="E61" t="s">
+        <v>424</v>
+      </c>
+      <c r="F61" t="s">
+        <v>425</v>
+      </c>
+      <c r="G61" t="s">
+        <v>426</v>
+      </c>
+      <c r="H61">
+        <v>0.53277321970332547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C62" t="s">
+        <v>429</v>
+      </c>
+      <c r="D62" t="s">
+        <v>430</v>
+      </c>
+      <c r="E62" t="s">
+        <v>431</v>
+      </c>
+      <c r="F62" t="s">
+        <v>432</v>
+      </c>
+      <c r="G62" t="s">
+        <v>433</v>
+      </c>
+      <c r="H62">
+        <v>0.61800263504524455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C63" t="s">
+        <v>436</v>
+      </c>
+      <c r="D63" t="s">
+        <v>437</v>
+      </c>
+      <c r="E63" t="s">
+        <v>438</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>440</v>
+      </c>
+      <c r="H63">
+        <v>0.51534709759412733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B64" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" t="s">
+        <v>443</v>
+      </c>
+      <c r="D64" t="s">
+        <v>444</v>
+      </c>
+      <c r="E64" t="s">
+        <v>445</v>
+      </c>
+      <c r="F64" t="s">
+        <v>446</v>
+      </c>
+      <c r="G64" t="s">
+        <v>447</v>
+      </c>
+      <c r="H64">
+        <v>0.33015338589752757</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" t="s">
+        <v>449</v>
+      </c>
+      <c r="C65" t="s">
+        <v>450</v>
+      </c>
+      <c r="D65" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F65" t="s">
+        <v>453</v>
+      </c>
+      <c r="G65" t="s">
+        <v>454</v>
+      </c>
+      <c r="H65">
+        <v>0.41036029249874573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>455</v>
+      </c>
+      <c r="B66" t="s">
+        <v>456</v>
+      </c>
+      <c r="C66" t="s">
+        <v>457</v>
+      </c>
+      <c r="D66" t="s">
+        <v>458</v>
+      </c>
+      <c r="E66" t="s">
+        <v>459</v>
+      </c>
+      <c r="F66" t="s">
+        <v>460</v>
+      </c>
+      <c r="G66" t="s">
+        <v>461</v>
+      </c>
+      <c r="H66">
+        <v>0.50055117230887702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>462</v>
+      </c>
+      <c r="B67" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" t="s">
+        <v>464</v>
+      </c>
+      <c r="D67" t="s">
+        <v>465</v>
+      </c>
+      <c r="E67" t="s">
+        <v>466</v>
+      </c>
+      <c r="F67" t="s">
+        <v>467</v>
+      </c>
+      <c r="G67" t="s">
+        <v>468</v>
+      </c>
+      <c r="H67">
+        <v>0.56220403774572303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>469</v>
+      </c>
+      <c r="B68" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" t="s">
+        <v>471</v>
+      </c>
+      <c r="D68" t="s">
+        <v>472</v>
+      </c>
+      <c r="E68" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G68" t="s">
+        <v>475</v>
+      </c>
+      <c r="H68">
+        <v>0.57799365648984191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" t="s">
+        <v>478</v>
+      </c>
+      <c r="D69" t="s">
+        <v>479</v>
+      </c>
+      <c r="E69" t="s">
+        <v>480</v>
+      </c>
+      <c r="F69" t="s">
+        <v>481</v>
+      </c>
+      <c r="G69" t="s">
+        <v>482</v>
+      </c>
+      <c r="H69">
+        <v>0.42707256009315242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>483</v>
+      </c>
+      <c r="B70" t="s">
+        <v>484</v>
+      </c>
+      <c r="C70" t="s">
+        <v>485</v>
+      </c>
+      <c r="D70" t="s">
+        <v>486</v>
+      </c>
+      <c r="E70" t="s">
+        <v>487</v>
+      </c>
+      <c r="F70" t="s">
+        <v>488</v>
+      </c>
+      <c r="G70" t="s">
+        <v>489</v>
+      </c>
+      <c r="H70">
+        <v>0.44331440269334249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>490</v>
+      </c>
+      <c r="B71" t="s">
+        <v>491</v>
+      </c>
+      <c r="C71" t="s">
+        <v>492</v>
+      </c>
+      <c r="D71" t="s">
+        <v>493</v>
+      </c>
+      <c r="E71" t="s">
+        <v>494</v>
+      </c>
+      <c r="F71" t="s">
+        <v>495</v>
+      </c>
+      <c r="G71" t="s">
+        <v>496</v>
+      </c>
+      <c r="H71">
+        <v>0.74147878799791367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>497</v>
+      </c>
+      <c r="B72" t="s">
+        <v>498</v>
+      </c>
+      <c r="C72" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" t="s">
+        <v>500</v>
+      </c>
+      <c r="E72" t="s">
+        <v>501</v>
+      </c>
+      <c r="F72" t="s">
+        <v>502</v>
+      </c>
+      <c r="G72" t="s">
+        <v>503</v>
+      </c>
+      <c r="H72">
+        <v>0.51753124582129495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>504</v>
+      </c>
+      <c r="B73" t="s">
+        <v>505</v>
+      </c>
+      <c r="C73" t="s">
+        <v>506</v>
+      </c>
+      <c r="D73" t="s">
+        <v>507</v>
+      </c>
+      <c r="E73" t="s">
+        <v>508</v>
+      </c>
+      <c r="F73" t="s">
+        <v>509</v>
+      </c>
+      <c r="G73" t="s">
+        <v>510</v>
+      </c>
+      <c r="H73">
+        <v>0.41184440134606942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>511</v>
+      </c>
+      <c r="B74" t="s">
+        <v>512</v>
+      </c>
+      <c r="C74" t="s">
+        <v>513</v>
+      </c>
+      <c r="D74" t="s">
+        <v>514</v>
+      </c>
+      <c r="E74" t="s">
+        <v>515</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>517</v>
+      </c>
+      <c r="H74">
+        <v>0.5063200254858331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>518</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+      <c r="C75" t="s">
+        <v>520</v>
+      </c>
+      <c r="D75" t="s">
+        <v>521</v>
+      </c>
+      <c r="E75" t="s">
+        <v>522</v>
+      </c>
+      <c r="F75" t="s">
+        <v>523</v>
+      </c>
+      <c r="G75" t="s">
+        <v>524</v>
+      </c>
+      <c r="H75">
+        <v>0.45047305288152728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C76" t="s">
+        <v>527</v>
+      </c>
+      <c r="D76" t="s">
+        <v>528</v>
+      </c>
+      <c r="E76" t="s">
+        <v>529</v>
+      </c>
+      <c r="F76" t="s">
+        <v>530</v>
+      </c>
+      <c r="G76" t="s">
+        <v>531</v>
+      </c>
+      <c r="H76">
+        <v>0.58357230425454321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C77" t="s">
+        <v>534</v>
+      </c>
+      <c r="D77" t="s">
+        <v>535</v>
+      </c>
+      <c r="E77" t="s">
+        <v>536</v>
+      </c>
+      <c r="F77" t="s">
+        <v>537</v>
+      </c>
+      <c r="G77" t="s">
+        <v>538</v>
+      </c>
+      <c r="H77">
+        <v>0.4001035091372323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>539</v>
+      </c>
+      <c r="B78" t="s">
+        <v>540</v>
+      </c>
+      <c r="C78" t="s">
+        <v>541</v>
+      </c>
+      <c r="D78" t="s">
+        <v>542</v>
+      </c>
+      <c r="E78" t="s">
+        <v>543</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>545</v>
+      </c>
+      <c r="H78">
+        <v>0.45457197039287051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>546</v>
+      </c>
+      <c r="B79" t="s">
+        <v>547</v>
+      </c>
+      <c r="C79" t="s">
+        <v>548</v>
+      </c>
+      <c r="D79" t="s">
+        <v>549</v>
+      </c>
+      <c r="E79" t="s">
+        <v>550</v>
+      </c>
+      <c r="F79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G79" t="s">
+        <v>552</v>
+      </c>
+      <c r="H79">
+        <v>0.48064518569429387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>553</v>
+      </c>
+      <c r="B80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C80" t="s">
+        <v>555</v>
+      </c>
+      <c r="D80" t="s">
+        <v>556</v>
+      </c>
+      <c r="E80" t="s">
+        <v>557</v>
+      </c>
+      <c r="F80" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" t="s">
+        <v>559</v>
+      </c>
+      <c r="H80">
+        <v>0.32585861389537918</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>560</v>
+      </c>
+      <c r="B81" t="s">
+        <v>561</v>
+      </c>
+      <c r="C81" t="s">
+        <v>562</v>
+      </c>
+      <c r="D81" t="s">
+        <v>563</v>
+      </c>
+      <c r="E81" t="s">
+        <v>564</v>
+      </c>
+      <c r="F81" t="s">
+        <v>565</v>
+      </c>
+      <c r="G81" t="s">
+        <v>566</v>
+      </c>
+      <c r="H81">
+        <v>0.55544327107414126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>567</v>
+      </c>
+      <c r="B82" t="s">
+        <v>568</v>
+      </c>
+      <c r="C82" t="s">
+        <v>569</v>
+      </c>
+      <c r="D82" t="s">
+        <v>570</v>
+      </c>
+      <c r="E82" t="s">
+        <v>571</v>
+      </c>
+      <c r="F82" t="s">
+        <v>572</v>
+      </c>
+      <c r="G82" t="s">
+        <v>573</v>
+      </c>
+      <c r="H82">
+        <v>0.47272425104407911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>574</v>
+      </c>
+      <c r="B83" t="s">
+        <v>575</v>
+      </c>
+      <c r="C83" t="s">
+        <v>576</v>
+      </c>
+      <c r="D83" t="s">
+        <v>577</v>
+      </c>
+      <c r="E83" t="s">
+        <v>578</v>
+      </c>
+      <c r="F83" t="s">
+        <v>579</v>
+      </c>
+      <c r="G83" t="s">
+        <v>580</v>
+      </c>
+      <c r="H83">
+        <v>0.43129395453510683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>581</v>
+      </c>
+      <c r="B84" t="s">
+        <v>582</v>
+      </c>
+      <c r="C84" t="s">
+        <v>583</v>
+      </c>
+      <c r="D84" t="s">
+        <v>584</v>
+      </c>
+      <c r="E84" t="s">
+        <v>585</v>
+      </c>
+      <c r="F84" t="s">
+        <v>586</v>
+      </c>
+      <c r="G84" t="s">
+        <v>587</v>
+      </c>
+      <c r="H84">
+        <v>0.53597999829061738</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>588</v>
+      </c>
+      <c r="B85" t="s">
+        <v>589</v>
+      </c>
+      <c r="C85" t="s">
+        <v>590</v>
+      </c>
+      <c r="D85" t="s">
+        <v>591</v>
+      </c>
+      <c r="E85" t="s">
+        <v>592</v>
+      </c>
+      <c r="F85" t="s">
+        <v>593</v>
+      </c>
+      <c r="G85" t="s">
+        <v>594</v>
+      </c>
+      <c r="H85">
+        <v>0.46432408056522129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>595</v>
+      </c>
+      <c r="B86" t="s">
+        <v>596</v>
+      </c>
+      <c r="C86" t="s">
+        <v>597</v>
+      </c>
+      <c r="D86" t="s">
+        <v>598</v>
+      </c>
+      <c r="E86" t="s">
+        <v>599</v>
+      </c>
+      <c r="F86" t="s">
+        <v>600</v>
+      </c>
+      <c r="G86" t="s">
+        <v>601</v>
+      </c>
+      <c r="H86">
+        <v>0.53044521244568721</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>602</v>
+      </c>
+      <c r="B87" t="s">
+        <v>603</v>
+      </c>
+      <c r="C87" t="s">
+        <v>604</v>
+      </c>
+      <c r="D87" t="s">
+        <v>605</v>
+      </c>
+      <c r="E87" t="s">
+        <v>606</v>
+      </c>
+      <c r="F87" t="s">
+        <v>607</v>
+      </c>
+      <c r="G87" t="s">
+        <v>608</v>
+      </c>
+      <c r="H87">
+        <v>0.62064774877967255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>609</v>
+      </c>
+      <c r="B88" t="s">
+        <v>610</v>
+      </c>
+      <c r="C88" t="s">
+        <v>611</v>
+      </c>
+      <c r="D88" t="s">
+        <v>612</v>
+      </c>
+      <c r="E88" t="s">
+        <v>613</v>
+      </c>
+      <c r="F88" t="s">
+        <v>614</v>
+      </c>
+      <c r="G88" t="s">
+        <v>615</v>
+      </c>
+      <c r="H88">
+        <v>0.53761911328121292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>616</v>
+      </c>
+      <c r="B89" t="s">
+        <v>617</v>
+      </c>
+      <c r="C89" t="s">
+        <v>618</v>
+      </c>
+      <c r="D89" t="s">
+        <v>619</v>
+      </c>
+      <c r="E89" t="s">
+        <v>620</v>
+      </c>
+      <c r="F89" t="s">
+        <v>621</v>
+      </c>
+      <c r="G89" t="s">
+        <v>622</v>
+      </c>
+      <c r="H89">
+        <v>0.47290003932327851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>623</v>
+      </c>
+      <c r="B90" t="s">
+        <v>624</v>
+      </c>
+      <c r="C90" t="s">
+        <v>625</v>
+      </c>
+      <c r="D90" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" t="s">
+        <v>627</v>
+      </c>
+      <c r="F90" t="s">
+        <v>628</v>
+      </c>
+      <c r="G90" t="s">
+        <v>629</v>
+      </c>
+      <c r="H90">
+        <v>0.55667941413989086</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>630</v>
+      </c>
+      <c r="B91" t="s">
+        <v>631</v>
+      </c>
+      <c r="C91" t="s">
+        <v>632</v>
+      </c>
+      <c r="D91" t="s">
+        <v>633</v>
+      </c>
+      <c r="E91" t="s">
+        <v>634</v>
+      </c>
+      <c r="F91" t="s">
+        <v>635</v>
+      </c>
+      <c r="G91" t="s">
+        <v>636</v>
+      </c>
+      <c r="H91">
+        <v>0.65950095323163771</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>637</v>
+      </c>
+      <c r="B92" t="s">
+        <v>638</v>
+      </c>
+      <c r="C92" t="s">
+        <v>639</v>
+      </c>
+      <c r="D92" t="s">
+        <v>640</v>
+      </c>
+      <c r="E92" t="s">
+        <v>641</v>
+      </c>
+      <c r="F92" t="s">
+        <v>642</v>
+      </c>
+      <c r="G92" t="s">
+        <v>643</v>
+      </c>
+      <c r="H92">
+        <v>0.58954159040734644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>644</v>
+      </c>
+      <c r="B93" t="s">
+        <v>645</v>
+      </c>
+      <c r="C93" t="s">
+        <v>646</v>
+      </c>
+      <c r="D93" t="s">
+        <v>647</v>
+      </c>
+      <c r="E93" t="s">
+        <v>648</v>
+      </c>
+      <c r="F93" t="s">
+        <v>649</v>
+      </c>
+      <c r="G93" t="s">
+        <v>650</v>
+      </c>
+      <c r="H93">
+        <v>0.37012888155614321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>651</v>
+      </c>
+      <c r="B94" t="s">
+        <v>652</v>
+      </c>
+      <c r="C94" t="s">
+        <v>653</v>
+      </c>
+      <c r="D94" t="s">
+        <v>654</v>
+      </c>
+      <c r="E94" t="s">
+        <v>655</v>
+      </c>
+      <c r="F94" t="s">
+        <v>656</v>
+      </c>
+      <c r="G94" t="s">
+        <v>657</v>
+      </c>
+      <c r="H94">
+        <v>0.49883328800567822</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>658</v>
+      </c>
+      <c r="B95" t="s">
+        <v>659</v>
+      </c>
+      <c r="C95" t="s">
+        <v>660</v>
+      </c>
+      <c r="D95" t="s">
+        <v>661</v>
+      </c>
+      <c r="E95" t="s">
+        <v>662</v>
+      </c>
+      <c r="F95" t="s">
+        <v>663</v>
+      </c>
+      <c r="G95" t="s">
+        <v>664</v>
+      </c>
+      <c r="H95">
+        <v>0.58421740634818597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>665</v>
+      </c>
+      <c r="B96" t="s">
+        <v>666</v>
+      </c>
+      <c r="C96" t="s">
+        <v>667</v>
+      </c>
+      <c r="D96" t="s">
+        <v>668</v>
+      </c>
+      <c r="E96" t="s">
+        <v>669</v>
+      </c>
+      <c r="F96" t="s">
+        <v>670</v>
+      </c>
+      <c r="G96" t="s">
+        <v>671</v>
+      </c>
+      <c r="H96">
+        <v>0.31746560868593648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>672</v>
+      </c>
+      <c r="B97" t="s">
+        <v>673</v>
+      </c>
+      <c r="C97" t="s">
+        <v>674</v>
+      </c>
+      <c r="D97" t="s">
+        <v>675</v>
+      </c>
+      <c r="E97" t="s">
+        <v>676</v>
+      </c>
+      <c r="F97" t="s">
+        <v>677</v>
+      </c>
+      <c r="G97" t="s">
+        <v>678</v>
+      </c>
+      <c r="H97">
+        <v>0.5419015180665705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>679</v>
+      </c>
+      <c r="B98" t="s">
+        <v>680</v>
+      </c>
+      <c r="C98" t="s">
+        <v>681</v>
+      </c>
+      <c r="D98" t="s">
+        <v>682</v>
+      </c>
+      <c r="E98" t="s">
+        <v>683</v>
+      </c>
+      <c r="F98" t="s">
+        <v>684</v>
+      </c>
+      <c r="G98" t="s">
+        <v>685</v>
+      </c>
+      <c r="H98">
+        <v>0.31409969876311222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>686</v>
+      </c>
+      <c r="B99" t="s">
+        <v>687</v>
+      </c>
+      <c r="C99" t="s">
+        <v>688</v>
+      </c>
+      <c r="D99" t="s">
+        <v>689</v>
+      </c>
+      <c r="E99" t="s">
+        <v>690</v>
+      </c>
+      <c r="F99" t="s">
+        <v>691</v>
+      </c>
+      <c r="G99" t="s">
+        <v>552</v>
+      </c>
+      <c r="H99">
+        <v>0.31183953944355691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>692</v>
+      </c>
+      <c r="B100" t="s">
+        <v>693</v>
+      </c>
+      <c r="C100" t="s">
+        <v>694</v>
+      </c>
+      <c r="D100" t="s">
+        <v>695</v>
+      </c>
+      <c r="E100" t="s">
+        <v>696</v>
+      </c>
+      <c r="F100" t="s">
+        <v>697</v>
+      </c>
+      <c r="G100" t="s">
+        <v>698</v>
+      </c>
+      <c r="H100">
+        <v>0.44305754853085139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>699</v>
+      </c>
+      <c r="B101" t="s">
+        <v>700</v>
+      </c>
+      <c r="C101" t="s">
+        <v>701</v>
+      </c>
+      <c r="D101" t="s">
+        <v>702</v>
+      </c>
+      <c r="E101" t="s">
+        <v>703</v>
+      </c>
+      <c r="F101" t="s">
+        <v>704</v>
+      </c>
+      <c r="G101" t="s">
+        <v>705</v>
+      </c>
+      <c r="H101">
+        <v>0.63838418865023683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>706</v>
+      </c>
+      <c r="B102" t="s">
+        <v>707</v>
+      </c>
+      <c r="C102" t="s">
+        <v>708</v>
+      </c>
+      <c r="D102" t="s">
+        <v>709</v>
+      </c>
+      <c r="E102" t="s">
+        <v>710</v>
+      </c>
+      <c r="F102" t="s">
+        <v>711</v>
+      </c>
+      <c r="G102" t="s">
+        <v>712</v>
+      </c>
+      <c r="H102">
+        <v>0.63220414703478556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>713</v>
+      </c>
+      <c r="B103" t="s">
+        <v>714</v>
+      </c>
+      <c r="C103" t="s">
+        <v>715</v>
+      </c>
+      <c r="D103" t="s">
+        <v>716</v>
+      </c>
+      <c r="E103" t="s">
+        <v>717</v>
+      </c>
+      <c r="F103" t="s">
+        <v>718</v>
+      </c>
+      <c r="G103" t="s">
+        <v>719</v>
+      </c>
+      <c r="H103">
+        <v>0.6741471078464536</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>720</v>
+      </c>
+      <c r="B104" t="s">
+        <v>721</v>
+      </c>
+      <c r="C104" t="s">
+        <v>722</v>
+      </c>
+      <c r="D104" t="s">
+        <v>723</v>
+      </c>
+      <c r="E104" t="s">
+        <v>724</v>
+      </c>
+      <c r="F104" t="s">
+        <v>725</v>
+      </c>
+      <c r="G104" t="s">
+        <v>545</v>
+      </c>
+      <c r="H104">
+        <v>0.50923441535442404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>726</v>
+      </c>
+      <c r="B105" t="s">
+        <v>727</v>
+      </c>
+      <c r="C105" t="s">
+        <v>728</v>
+      </c>
+      <c r="D105" t="s">
+        <v>729</v>
+      </c>
+      <c r="E105" t="s">
+        <v>730</v>
+      </c>
+      <c r="F105" t="s">
+        <v>731</v>
+      </c>
+      <c r="G105" t="s">
+        <v>433</v>
+      </c>
+      <c r="H105">
+        <v>0.31235449816232791</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>732</v>
+      </c>
+      <c r="B106" t="s">
+        <v>733</v>
+      </c>
+      <c r="C106" t="s">
+        <v>734</v>
+      </c>
+      <c r="D106" t="s">
+        <v>735</v>
+      </c>
+      <c r="E106" t="s">
+        <v>736</v>
+      </c>
+      <c r="F106" t="s">
+        <v>737</v>
+      </c>
+      <c r="G106" t="s">
+        <v>738</v>
+      </c>
+      <c r="H106">
+        <v>0.43593487194800629</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>739</v>
+      </c>
+      <c r="B107" t="s">
+        <v>740</v>
+      </c>
+      <c r="C107" t="s">
+        <v>741</v>
+      </c>
+      <c r="D107" t="s">
+        <v>742</v>
+      </c>
+      <c r="E107" t="s">
+        <v>743</v>
+      </c>
+      <c r="F107" t="s">
+        <v>744</v>
+      </c>
+      <c r="G107" t="s">
+        <v>745</v>
+      </c>
+      <c r="H107">
+        <v>0.37269996754581908</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>746</v>
+      </c>
+      <c r="B108" t="s">
+        <v>747</v>
+      </c>
+      <c r="C108" t="s">
+        <v>748</v>
+      </c>
+      <c r="D108" t="s">
+        <v>749</v>
+      </c>
+      <c r="E108" t="s">
+        <v>750</v>
+      </c>
+      <c r="F108" t="s">
+        <v>751</v>
+      </c>
+      <c r="G108" t="s">
+        <v>752</v>
+      </c>
+      <c r="H108">
+        <v>0.51517377453502722</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>753</v>
+      </c>
+      <c r="B109" t="s">
+        <v>754</v>
+      </c>
+      <c r="C109" t="s">
+        <v>755</v>
+      </c>
+      <c r="D109" t="s">
+        <v>756</v>
+      </c>
+      <c r="E109" t="s">
+        <v>757</v>
+      </c>
+      <c r="F109" t="s">
+        <v>758</v>
+      </c>
+      <c r="G109" t="s">
+        <v>759</v>
+      </c>
+      <c r="H109">
+        <v>0.33897234483487132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>760</v>
+      </c>
+      <c r="B110" t="s">
+        <v>761</v>
+      </c>
+      <c r="C110" t="s">
+        <v>762</v>
+      </c>
+      <c r="D110" t="s">
+        <v>763</v>
+      </c>
+      <c r="E110" t="s">
+        <v>764</v>
+      </c>
+      <c r="F110" t="s">
+        <v>765</v>
+      </c>
+      <c r="G110" t="s">
+        <v>766</v>
+      </c>
+      <c r="H110">
+        <v>0.61534878707847762</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>767</v>
+      </c>
+      <c r="B111" t="s">
+        <v>768</v>
+      </c>
+      <c r="C111" t="s">
+        <v>769</v>
+      </c>
+      <c r="D111" t="s">
+        <v>770</v>
+      </c>
+      <c r="E111" t="s">
+        <v>771</v>
+      </c>
+      <c r="F111" t="s">
+        <v>772</v>
+      </c>
+      <c r="G111" t="s">
+        <v>773</v>
+      </c>
+      <c r="H111">
+        <v>0.71658224145142002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>774</v>
+      </c>
+      <c r="B112" t="s">
+        <v>775</v>
+      </c>
+      <c r="C112" t="s">
+        <v>776</v>
+      </c>
+      <c r="D112" t="s">
+        <v>777</v>
+      </c>
+      <c r="E112" t="s">
+        <v>778</v>
+      </c>
+      <c r="F112" t="s">
+        <v>779</v>
+      </c>
+      <c r="G112" t="s">
+        <v>780</v>
+      </c>
+      <c r="H112">
+        <v>0.61452668750865425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>781</v>
+      </c>
+      <c r="B113" t="s">
+        <v>782</v>
+      </c>
+      <c r="C113" t="s">
+        <v>783</v>
+      </c>
+      <c r="D113" t="s">
+        <v>784</v>
+      </c>
+      <c r="E113" t="s">
+        <v>785</v>
+      </c>
+      <c r="F113" t="s">
+        <v>786</v>
+      </c>
+      <c r="G113" t="s">
+        <v>787</v>
+      </c>
+      <c r="H113">
+        <v>0.36876058668405343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>788</v>
+      </c>
+      <c r="B114" t="s">
+        <v>789</v>
+      </c>
+      <c r="C114" t="s">
+        <v>790</v>
+      </c>
+      <c r="D114" t="s">
+        <v>791</v>
+      </c>
+      <c r="E114" t="s">
+        <v>792</v>
+      </c>
+      <c r="F114" t="s">
+        <v>793</v>
+      </c>
+      <c r="G114" t="s">
+        <v>794</v>
+      </c>
+      <c r="H114">
+        <v>0.19248241008208081</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>795</v>
+      </c>
+      <c r="B115" t="s">
+        <v>796</v>
+      </c>
+      <c r="C115" t="s">
+        <v>797</v>
+      </c>
+      <c r="D115" t="s">
+        <v>798</v>
+      </c>
+      <c r="E115" t="s">
+        <v>799</v>
+      </c>
+      <c r="F115" t="s">
+        <v>800</v>
+      </c>
+      <c r="G115" t="s">
+        <v>801</v>
+      </c>
+      <c r="H115">
+        <v>0.51193753665228214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>802</v>
+      </c>
+      <c r="B116" t="s">
+        <v>803</v>
+      </c>
+      <c r="C116" t="s">
+        <v>804</v>
+      </c>
+      <c r="D116" t="s">
+        <v>805</v>
+      </c>
+      <c r="E116" t="s">
+        <v>806</v>
+      </c>
+      <c r="F116" t="s">
+        <v>807</v>
+      </c>
+      <c r="G116" t="s">
+        <v>808</v>
+      </c>
+      <c r="H116">
+        <v>0.33698494295430809</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>809</v>
+      </c>
+      <c r="B117" t="s">
+        <v>810</v>
+      </c>
+      <c r="C117" t="s">
+        <v>811</v>
+      </c>
+      <c r="D117" t="s">
+        <v>812</v>
+      </c>
+      <c r="E117" t="s">
+        <v>813</v>
+      </c>
+      <c r="F117" t="s">
+        <v>814</v>
+      </c>
+      <c r="G117" t="s">
+        <v>815</v>
+      </c>
+      <c r="H117">
+        <v>0.25425946239316338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>816</v>
+      </c>
+      <c r="B118" t="s">
+        <v>817</v>
+      </c>
+      <c r="C118" t="s">
+        <v>818</v>
+      </c>
+      <c r="D118" t="s">
+        <v>819</v>
+      </c>
+      <c r="E118" t="s">
+        <v>820</v>
+      </c>
+      <c r="F118" t="s">
+        <v>821</v>
+      </c>
+      <c r="G118" t="s">
+        <v>822</v>
+      </c>
+      <c r="H118">
+        <v>0.41029069980089661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>823</v>
+      </c>
+      <c r="B119" t="s">
+        <v>824</v>
+      </c>
+      <c r="C119" t="s">
+        <v>825</v>
+      </c>
+      <c r="D119" t="s">
+        <v>826</v>
+      </c>
+      <c r="E119" t="s">
+        <v>827</v>
+      </c>
+      <c r="F119" t="s">
+        <v>828</v>
+      </c>
+      <c r="G119" t="s">
+        <v>829</v>
+      </c>
+      <c r="H119">
+        <v>0.43809343940642792</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>830</v>
+      </c>
+      <c r="B120" t="s">
+        <v>831</v>
+      </c>
+      <c r="C120" t="s">
+        <v>832</v>
+      </c>
+      <c r="D120" t="s">
+        <v>833</v>
+      </c>
+      <c r="E120" t="s">
+        <v>834</v>
+      </c>
+      <c r="F120" t="s">
+        <v>835</v>
+      </c>
+      <c r="G120" t="s">
+        <v>836</v>
+      </c>
+      <c r="H120">
+        <v>0.56939501813569982</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>837</v>
+      </c>
+      <c r="B121" t="s">
+        <v>838</v>
+      </c>
+      <c r="C121" t="s">
+        <v>839</v>
+      </c>
+      <c r="D121" t="s">
+        <v>840</v>
+      </c>
+      <c r="E121" t="s">
+        <v>841</v>
+      </c>
+      <c r="F121" t="s">
+        <v>842</v>
+      </c>
+      <c r="G121" t="s">
+        <v>843</v>
+      </c>
+      <c r="H121">
+        <v>0.54214617864320891</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>844</v>
+      </c>
+      <c r="B122" t="s">
+        <v>845</v>
+      </c>
+      <c r="C122" t="s">
+        <v>846</v>
+      </c>
+      <c r="D122" t="s">
+        <v>847</v>
+      </c>
+      <c r="E122" t="s">
+        <v>848</v>
+      </c>
+      <c r="F122" t="s">
+        <v>849</v>
+      </c>
+      <c r="G122" t="s">
+        <v>850</v>
+      </c>
+      <c r="H122">
+        <v>0.61137765250616427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>851</v>
+      </c>
+      <c r="B123" t="s">
+        <v>852</v>
+      </c>
+      <c r="C123" t="s">
+        <v>853</v>
+      </c>
+      <c r="D123" t="s">
+        <v>854</v>
+      </c>
+      <c r="E123" t="s">
+        <v>855</v>
+      </c>
+      <c r="F123" t="s">
+        <v>856</v>
+      </c>
+      <c r="G123" t="s">
+        <v>857</v>
+      </c>
+      <c r="H123">
+        <v>0.48564595616197431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>858</v>
+      </c>
+      <c r="B124" t="s">
+        <v>859</v>
+      </c>
+      <c r="C124" t="s">
+        <v>860</v>
+      </c>
+      <c r="D124" t="s">
+        <v>861</v>
+      </c>
+      <c r="E124" t="s">
+        <v>862</v>
+      </c>
+      <c r="F124" t="s">
+        <v>863</v>
+      </c>
+      <c r="G124" t="s">
+        <v>864</v>
+      </c>
+      <c r="H124">
+        <v>0.4037731788497344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>865</v>
+      </c>
+      <c r="B125" t="s">
+        <v>866</v>
+      </c>
+      <c r="C125" t="s">
+        <v>867</v>
+      </c>
+      <c r="D125" t="s">
+        <v>868</v>
+      </c>
+      <c r="E125" t="s">
+        <v>869</v>
+      </c>
+      <c r="F125" t="s">
+        <v>870</v>
+      </c>
+      <c r="G125" t="s">
+        <v>871</v>
+      </c>
+      <c r="H125">
+        <v>0.36004605159329062</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>872</v>
+      </c>
+      <c r="B126" t="s">
+        <v>873</v>
+      </c>
+      <c r="C126" t="s">
+        <v>874</v>
+      </c>
+      <c r="D126" t="s">
+        <v>875</v>
+      </c>
+      <c r="E126" t="s">
+        <v>876</v>
+      </c>
+      <c r="F126" t="s">
+        <v>877</v>
+      </c>
+      <c r="G126" t="s">
+        <v>878</v>
+      </c>
+      <c r="H126">
+        <v>0.60612017385399897</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>879</v>
+      </c>
+      <c r="B127" t="s">
+        <v>880</v>
+      </c>
+      <c r="C127" t="s">
+        <v>881</v>
+      </c>
+      <c r="D127" t="s">
+        <v>882</v>
+      </c>
+      <c r="E127" t="s">
+        <v>883</v>
+      </c>
+      <c r="F127" t="s">
+        <v>884</v>
+      </c>
+      <c r="G127" t="s">
+        <v>885</v>
+      </c>
+      <c r="H127">
+        <v>0.6237300581939309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>886</v>
+      </c>
+      <c r="B128" t="s">
+        <v>887</v>
+      </c>
+      <c r="C128" t="s">
+        <v>888</v>
+      </c>
+      <c r="D128" t="s">
+        <v>889</v>
+      </c>
+      <c r="E128" t="s">
+        <v>890</v>
+      </c>
+      <c r="F128" t="s">
+        <v>891</v>
+      </c>
+      <c r="G128" t="s">
+        <v>892</v>
+      </c>
+      <c r="H128">
+        <v>0.50974268760994468</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>893</v>
+      </c>
+      <c r="B129" t="s">
+        <v>894</v>
+      </c>
+      <c r="C129" t="s">
+        <v>895</v>
+      </c>
+      <c r="D129" t="s">
+        <v>896</v>
+      </c>
+      <c r="E129" t="s">
+        <v>897</v>
+      </c>
+      <c r="F129" t="s">
+        <v>898</v>
+      </c>
+      <c r="G129" t="s">
+        <v>899</v>
+      </c>
+      <c r="H129">
+        <v>0.47531777815289938</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>900</v>
+      </c>
+      <c r="B130" t="s">
+        <v>901</v>
+      </c>
+      <c r="C130" t="s">
+        <v>902</v>
+      </c>
+      <c r="D130" t="s">
+        <v>903</v>
+      </c>
+      <c r="E130" t="s">
+        <v>904</v>
+      </c>
+      <c r="F130" t="s">
+        <v>905</v>
+      </c>
+      <c r="G130" t="s">
+        <v>906</v>
+      </c>
+      <c r="H130">
+        <v>0.49046101067019399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>907</v>
+      </c>
+      <c r="B131" t="s">
+        <v>908</v>
+      </c>
+      <c r="C131" t="s">
+        <v>909</v>
+      </c>
+      <c r="D131" t="s">
+        <v>910</v>
+      </c>
+      <c r="E131" t="s">
+        <v>911</v>
+      </c>
+      <c r="F131" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>244</v>
-      </c>
-      <c r="B36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" t="s">
-        <v>246</v>
-      </c>
-      <c r="D36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>265</v>
-      </c>
-      <c r="B39" t="s">
-        <v>266</v>
-      </c>
-      <c r="C39" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" t="s">
-        <v>277</v>
-      </c>
-      <c r="G40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B41" t="s">
-        <v>280</v>
-      </c>
-      <c r="C41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" t="s">
-        <v>283</v>
-      </c>
-      <c r="F41" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" t="s">
-        <v>290</v>
-      </c>
-      <c r="F42" t="s">
-        <v>291</v>
-      </c>
-      <c r="G42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" t="s">
-        <v>297</v>
-      </c>
-      <c r="F43" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" t="s">
-        <v>301</v>
-      </c>
-      <c r="C44" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E44" t="s">
-        <v>304</v>
-      </c>
-      <c r="F44" t="s">
-        <v>305</v>
-      </c>
-      <c r="G44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>307</v>
-      </c>
-      <c r="B45" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" t="s">
-        <v>309</v>
-      </c>
-      <c r="D45" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" t="s">
-        <v>311</v>
-      </c>
-      <c r="F45" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>314</v>
-      </c>
-      <c r="B46" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" t="s">
-        <v>316</v>
-      </c>
-      <c r="D46" t="s">
-        <v>317</v>
-      </c>
-      <c r="E46" t="s">
-        <v>318</v>
-      </c>
-      <c r="F46" t="s">
-        <v>319</v>
-      </c>
-      <c r="G46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>321</v>
-      </c>
-      <c r="B47" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" t="s">
-        <v>325</v>
-      </c>
-      <c r="F47" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" t="s">
-        <v>329</v>
-      </c>
-      <c r="C48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" t="s">
-        <v>331</v>
-      </c>
-      <c r="E48" t="s">
-        <v>332</v>
-      </c>
-      <c r="F48" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>335</v>
-      </c>
-      <c r="B49" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" t="s">
-        <v>337</v>
-      </c>
-      <c r="D49" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" t="s">
-        <v>339</v>
-      </c>
-      <c r="F49" t="s">
-        <v>340</v>
-      </c>
-      <c r="G49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" t="s">
-        <v>343</v>
-      </c>
-      <c r="C50" t="s">
-        <v>344</v>
-      </c>
-      <c r="D50" t="s">
-        <v>345</v>
-      </c>
-      <c r="E50" t="s">
-        <v>346</v>
-      </c>
-      <c r="F50" t="s">
-        <v>347</v>
-      </c>
-      <c r="G50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>349</v>
-      </c>
-      <c r="B51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" t="s">
-        <v>351</v>
-      </c>
-      <c r="D51" t="s">
-        <v>352</v>
-      </c>
-      <c r="E51" t="s">
-        <v>353</v>
-      </c>
-      <c r="F51" t="s">
-        <v>354</v>
-      </c>
-      <c r="G51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>356</v>
-      </c>
-      <c r="B52" t="s">
-        <v>357</v>
-      </c>
-      <c r="C52" t="s">
-        <v>358</v>
-      </c>
-      <c r="D52" t="s">
-        <v>359</v>
-      </c>
-      <c r="E52" t="s">
-        <v>360</v>
-      </c>
-      <c r="F52" t="s">
-        <v>361</v>
-      </c>
-      <c r="G52" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>363</v>
-      </c>
-      <c r="B53" t="s">
-        <v>364</v>
-      </c>
-      <c r="C53" t="s">
-        <v>365</v>
-      </c>
-      <c r="D53" t="s">
-        <v>366</v>
-      </c>
-      <c r="E53" t="s">
-        <v>367</v>
-      </c>
-      <c r="F53" t="s">
-        <v>368</v>
-      </c>
-      <c r="G53" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>370</v>
-      </c>
-      <c r="B54" t="s">
-        <v>371</v>
-      </c>
-      <c r="C54" t="s">
-        <v>372</v>
-      </c>
-      <c r="D54" t="s">
-        <v>373</v>
-      </c>
-      <c r="E54" t="s">
-        <v>374</v>
-      </c>
-      <c r="F54" t="s">
-        <v>375</v>
-      </c>
-      <c r="G54" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>377</v>
-      </c>
-      <c r="B55" t="s">
-        <v>378</v>
-      </c>
-      <c r="C55" t="s">
-        <v>379</v>
-      </c>
-      <c r="D55" t="s">
-        <v>380</v>
-      </c>
-      <c r="E55" t="s">
-        <v>381</v>
-      </c>
-      <c r="F55" t="s">
-        <v>382</v>
-      </c>
-      <c r="G55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>383</v>
-      </c>
-      <c r="B56" t="s">
-        <v>384</v>
-      </c>
-      <c r="C56" t="s">
-        <v>385</v>
-      </c>
-      <c r="D56" t="s">
-        <v>386</v>
-      </c>
-      <c r="E56" t="s">
-        <v>387</v>
-      </c>
-      <c r="F56" t="s">
-        <v>388</v>
-      </c>
-      <c r="G56" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>390</v>
-      </c>
-      <c r="B57" t="s">
-        <v>391</v>
-      </c>
-      <c r="C57" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" t="s">
-        <v>393</v>
-      </c>
-      <c r="E57" t="s">
-        <v>394</v>
-      </c>
-      <c r="F57" t="s">
-        <v>395</v>
-      </c>
-      <c r="G57" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>397</v>
-      </c>
-      <c r="B58" t="s">
-        <v>398</v>
-      </c>
-      <c r="C58" t="s">
-        <v>399</v>
-      </c>
-      <c r="D58" t="s">
-        <v>400</v>
-      </c>
-      <c r="E58" t="s">
-        <v>401</v>
-      </c>
-      <c r="F58" t="s">
-        <v>402</v>
-      </c>
-      <c r="G58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>404</v>
-      </c>
-      <c r="B59" t="s">
-        <v>405</v>
-      </c>
-      <c r="C59" t="s">
-        <v>406</v>
-      </c>
-      <c r="D59" t="s">
-        <v>407</v>
-      </c>
-      <c r="E59" t="s">
-        <v>408</v>
-      </c>
-      <c r="F59" t="s">
-        <v>409</v>
-      </c>
-      <c r="G59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>411</v>
-      </c>
-      <c r="B60" t="s">
-        <v>412</v>
-      </c>
-      <c r="C60" t="s">
-        <v>413</v>
-      </c>
-      <c r="D60" t="s">
-        <v>414</v>
-      </c>
-      <c r="E60" t="s">
-        <v>415</v>
-      </c>
-      <c r="F60" t="s">
-        <v>416</v>
-      </c>
-      <c r="G60" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>418</v>
-      </c>
-      <c r="B61" t="s">
-        <v>419</v>
-      </c>
-      <c r="C61" t="s">
-        <v>420</v>
-      </c>
-      <c r="D61" t="s">
-        <v>421</v>
-      </c>
-      <c r="E61" t="s">
-        <v>422</v>
-      </c>
-      <c r="F61" t="s">
-        <v>423</v>
-      </c>
-      <c r="G61" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>425</v>
-      </c>
-      <c r="B62" t="s">
-        <v>426</v>
-      </c>
-      <c r="C62" t="s">
-        <v>427</v>
-      </c>
-      <c r="D62" t="s">
-        <v>428</v>
-      </c>
-      <c r="E62" t="s">
-        <v>429</v>
-      </c>
-      <c r="F62" t="s">
-        <v>430</v>
-      </c>
-      <c r="G62" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>432</v>
-      </c>
-      <c r="B63" t="s">
-        <v>433</v>
-      </c>
-      <c r="C63" t="s">
-        <v>434</v>
-      </c>
-      <c r="D63" t="s">
-        <v>435</v>
-      </c>
-      <c r="E63" t="s">
-        <v>436</v>
-      </c>
-      <c r="F63" t="s">
-        <v>437</v>
-      </c>
-      <c r="G63" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>439</v>
-      </c>
-      <c r="B64" t="s">
-        <v>440</v>
-      </c>
-      <c r="C64" t="s">
-        <v>441</v>
-      </c>
-      <c r="D64" t="s">
-        <v>442</v>
-      </c>
-      <c r="E64" t="s">
-        <v>443</v>
-      </c>
-      <c r="F64" t="s">
-        <v>444</v>
-      </c>
-      <c r="G64" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>446</v>
-      </c>
-      <c r="B65" t="s">
-        <v>447</v>
-      </c>
-      <c r="C65" t="s">
-        <v>448</v>
-      </c>
-      <c r="D65" t="s">
-        <v>449</v>
-      </c>
-      <c r="E65" t="s">
-        <v>450</v>
-      </c>
-      <c r="F65" t="s">
-        <v>451</v>
-      </c>
-      <c r="G65" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>453</v>
-      </c>
-      <c r="B66" t="s">
-        <v>454</v>
-      </c>
-      <c r="C66" t="s">
-        <v>455</v>
-      </c>
-      <c r="D66" t="s">
-        <v>456</v>
-      </c>
-      <c r="E66" t="s">
-        <v>457</v>
-      </c>
-      <c r="F66" t="s">
-        <v>458</v>
-      </c>
-      <c r="G66" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" t="s">
-        <v>461</v>
-      </c>
-      <c r="C67" t="s">
-        <v>462</v>
-      </c>
-      <c r="D67" t="s">
-        <v>463</v>
-      </c>
-      <c r="E67" t="s">
-        <v>464</v>
-      </c>
-      <c r="F67" t="s">
-        <v>465</v>
-      </c>
-      <c r="G67" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>467</v>
-      </c>
-      <c r="B68" t="s">
-        <v>468</v>
-      </c>
-      <c r="C68" t="s">
-        <v>469</v>
-      </c>
-      <c r="D68" t="s">
-        <v>470</v>
-      </c>
-      <c r="E68" t="s">
-        <v>471</v>
-      </c>
-      <c r="F68" t="s">
-        <v>472</v>
-      </c>
-      <c r="G68" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>474</v>
-      </c>
-      <c r="B69" t="s">
-        <v>475</v>
-      </c>
-      <c r="C69" t="s">
-        <v>476</v>
-      </c>
-      <c r="D69" t="s">
-        <v>477</v>
-      </c>
-      <c r="E69" t="s">
-        <v>478</v>
-      </c>
-      <c r="F69" t="s">
-        <v>479</v>
-      </c>
-      <c r="G69" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>481</v>
-      </c>
-      <c r="B70" t="s">
-        <v>482</v>
-      </c>
-      <c r="C70" t="s">
-        <v>483</v>
-      </c>
-      <c r="D70" t="s">
-        <v>484</v>
-      </c>
-      <c r="E70" t="s">
-        <v>485</v>
-      </c>
-      <c r="F70" t="s">
-        <v>486</v>
-      </c>
-      <c r="G70" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>488</v>
-      </c>
-      <c r="B71" t="s">
-        <v>489</v>
-      </c>
-      <c r="C71" t="s">
-        <v>490</v>
-      </c>
-      <c r="D71" t="s">
-        <v>491</v>
-      </c>
-      <c r="E71" t="s">
-        <v>492</v>
-      </c>
-      <c r="F71" t="s">
-        <v>493</v>
-      </c>
-      <c r="G71" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>495</v>
-      </c>
-      <c r="B72" t="s">
-        <v>496</v>
-      </c>
-      <c r="C72" t="s">
-        <v>497</v>
-      </c>
-      <c r="D72" t="s">
-        <v>498</v>
-      </c>
-      <c r="E72" t="s">
-        <v>499</v>
-      </c>
-      <c r="F72" t="s">
-        <v>500</v>
-      </c>
-      <c r="G72" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>502</v>
-      </c>
-      <c r="B73" t="s">
-        <v>503</v>
-      </c>
-      <c r="C73" t="s">
-        <v>504</v>
-      </c>
-      <c r="D73" t="s">
-        <v>505</v>
-      </c>
-      <c r="E73" t="s">
-        <v>506</v>
-      </c>
-      <c r="F73" t="s">
-        <v>507</v>
-      </c>
-      <c r="G73" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>509</v>
-      </c>
-      <c r="B74" t="s">
-        <v>510</v>
-      </c>
-      <c r="C74" t="s">
-        <v>511</v>
-      </c>
-      <c r="D74" t="s">
-        <v>512</v>
-      </c>
-      <c r="E74" t="s">
-        <v>513</v>
-      </c>
-      <c r="F74" t="s">
-        <v>514</v>
-      </c>
-      <c r="G74" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>516</v>
-      </c>
-      <c r="B75" t="s">
-        <v>517</v>
-      </c>
-      <c r="C75" t="s">
-        <v>518</v>
-      </c>
-      <c r="D75" t="s">
-        <v>519</v>
-      </c>
-      <c r="E75" t="s">
-        <v>520</v>
-      </c>
-      <c r="F75" t="s">
-        <v>521</v>
-      </c>
-      <c r="G75" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>523</v>
-      </c>
-      <c r="B76" t="s">
-        <v>524</v>
-      </c>
-      <c r="C76" t="s">
-        <v>525</v>
-      </c>
-      <c r="D76" t="s">
-        <v>526</v>
-      </c>
-      <c r="E76" t="s">
-        <v>527</v>
-      </c>
-      <c r="F76" t="s">
-        <v>528</v>
-      </c>
-      <c r="G76" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>530</v>
-      </c>
-      <c r="B77" t="s">
-        <v>531</v>
-      </c>
-      <c r="C77" t="s">
-        <v>532</v>
-      </c>
-      <c r="D77" t="s">
-        <v>533</v>
-      </c>
-      <c r="E77" t="s">
-        <v>534</v>
-      </c>
-      <c r="F77" t="s">
-        <v>535</v>
-      </c>
-      <c r="G77" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>537</v>
-      </c>
-      <c r="B78" t="s">
-        <v>538</v>
-      </c>
-      <c r="C78" t="s">
-        <v>539</v>
-      </c>
-      <c r="D78" t="s">
-        <v>540</v>
-      </c>
-      <c r="E78" t="s">
-        <v>541</v>
-      </c>
-      <c r="F78" t="s">
-        <v>542</v>
-      </c>
-      <c r="G78" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>544</v>
-      </c>
-      <c r="B79" t="s">
-        <v>545</v>
-      </c>
-      <c r="C79" t="s">
-        <v>546</v>
-      </c>
-      <c r="D79" t="s">
-        <v>547</v>
-      </c>
-      <c r="E79" t="s">
-        <v>548</v>
-      </c>
-      <c r="F79" t="s">
-        <v>549</v>
-      </c>
-      <c r="G79" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>551</v>
-      </c>
-      <c r="B80" t="s">
-        <v>552</v>
-      </c>
-      <c r="C80" t="s">
-        <v>553</v>
-      </c>
-      <c r="D80" t="s">
-        <v>554</v>
-      </c>
-      <c r="E80" t="s">
-        <v>555</v>
-      </c>
-      <c r="F80" t="s">
-        <v>556</v>
-      </c>
-      <c r="G80" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>558</v>
-      </c>
-      <c r="B81" t="s">
-        <v>559</v>
-      </c>
-      <c r="C81" t="s">
-        <v>560</v>
-      </c>
-      <c r="D81" t="s">
-        <v>561</v>
-      </c>
-      <c r="E81" t="s">
-        <v>562</v>
-      </c>
-      <c r="F81" t="s">
-        <v>563</v>
-      </c>
-      <c r="G81" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>565</v>
-      </c>
-      <c r="B82" t="s">
-        <v>566</v>
-      </c>
-      <c r="C82" t="s">
-        <v>567</v>
-      </c>
-      <c r="D82" t="s">
-        <v>568</v>
-      </c>
-      <c r="E82" t="s">
-        <v>569</v>
-      </c>
-      <c r="F82" t="s">
-        <v>570</v>
-      </c>
-      <c r="G82" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>572</v>
-      </c>
-      <c r="B83" t="s">
-        <v>573</v>
-      </c>
-      <c r="C83" t="s">
-        <v>574</v>
-      </c>
-      <c r="D83" t="s">
-        <v>575</v>
-      </c>
-      <c r="E83" t="s">
-        <v>576</v>
-      </c>
-      <c r="F83" t="s">
-        <v>577</v>
-      </c>
-      <c r="G83" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>579</v>
-      </c>
-      <c r="B84" t="s">
-        <v>580</v>
-      </c>
-      <c r="C84" t="s">
-        <v>581</v>
-      </c>
-      <c r="D84" t="s">
-        <v>582</v>
-      </c>
-      <c r="E84" t="s">
-        <v>583</v>
-      </c>
-      <c r="F84" t="s">
-        <v>584</v>
-      </c>
-      <c r="G84" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>586</v>
-      </c>
-      <c r="B85" t="s">
-        <v>587</v>
-      </c>
-      <c r="C85" t="s">
-        <v>588</v>
-      </c>
-      <c r="D85" t="s">
-        <v>589</v>
-      </c>
-      <c r="E85" t="s">
-        <v>590</v>
-      </c>
-      <c r="F85" t="s">
-        <v>591</v>
-      </c>
-      <c r="G85" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>593</v>
-      </c>
-      <c r="B86" t="s">
-        <v>594</v>
-      </c>
-      <c r="C86" t="s">
-        <v>595</v>
-      </c>
-      <c r="D86" t="s">
-        <v>596</v>
-      </c>
-      <c r="E86" t="s">
-        <v>597</v>
-      </c>
-      <c r="F86" t="s">
-        <v>598</v>
-      </c>
-      <c r="G86" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>600</v>
-      </c>
-      <c r="B87" t="s">
-        <v>601</v>
-      </c>
-      <c r="C87" t="s">
-        <v>602</v>
-      </c>
-      <c r="D87" t="s">
-        <v>603</v>
-      </c>
-      <c r="E87" t="s">
-        <v>604</v>
-      </c>
-      <c r="F87" t="s">
-        <v>605</v>
-      </c>
-      <c r="G87" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>607</v>
-      </c>
-      <c r="B88" t="s">
-        <v>608</v>
-      </c>
-      <c r="C88" t="s">
-        <v>609</v>
-      </c>
-      <c r="D88" t="s">
-        <v>610</v>
-      </c>
-      <c r="E88" t="s">
-        <v>611</v>
-      </c>
-      <c r="F88" t="s">
-        <v>612</v>
-      </c>
-      <c r="G88" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>614</v>
-      </c>
-      <c r="B89" t="s">
-        <v>615</v>
-      </c>
-      <c r="C89" t="s">
-        <v>616</v>
-      </c>
-      <c r="D89" t="s">
-        <v>617</v>
-      </c>
-      <c r="E89" t="s">
-        <v>618</v>
-      </c>
-      <c r="F89" t="s">
-        <v>619</v>
-      </c>
-      <c r="G89" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>621</v>
-      </c>
-      <c r="B90" t="s">
-        <v>622</v>
-      </c>
-      <c r="C90" t="s">
-        <v>623</v>
-      </c>
-      <c r="D90" t="s">
-        <v>624</v>
-      </c>
-      <c r="E90" t="s">
-        <v>625</v>
-      </c>
-      <c r="F90" t="s">
-        <v>626</v>
-      </c>
-      <c r="G90" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>628</v>
-      </c>
-      <c r="B91" t="s">
-        <v>629</v>
-      </c>
-      <c r="C91" t="s">
-        <v>630</v>
-      </c>
-      <c r="D91" t="s">
-        <v>631</v>
-      </c>
-      <c r="E91" t="s">
-        <v>632</v>
-      </c>
-      <c r="F91" t="s">
-        <v>633</v>
-      </c>
-      <c r="G91" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>635</v>
-      </c>
-      <c r="B92" t="s">
-        <v>636</v>
-      </c>
-      <c r="C92" t="s">
-        <v>637</v>
-      </c>
-      <c r="D92" t="s">
-        <v>638</v>
-      </c>
-      <c r="E92" t="s">
-        <v>639</v>
-      </c>
-      <c r="F92" t="s">
-        <v>640</v>
-      </c>
-      <c r="G92" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>642</v>
-      </c>
-      <c r="B93" t="s">
-        <v>643</v>
-      </c>
-      <c r="C93" t="s">
-        <v>644</v>
-      </c>
-      <c r="D93" t="s">
-        <v>645</v>
-      </c>
-      <c r="E93" t="s">
-        <v>646</v>
-      </c>
-      <c r="F93" t="s">
-        <v>647</v>
-      </c>
-      <c r="G93" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>649</v>
-      </c>
-      <c r="B94" t="s">
-        <v>650</v>
-      </c>
-      <c r="C94" t="s">
-        <v>651</v>
-      </c>
-      <c r="D94" t="s">
-        <v>652</v>
-      </c>
-      <c r="E94" t="s">
-        <v>653</v>
-      </c>
-      <c r="F94" t="s">
-        <v>654</v>
-      </c>
-      <c r="G94" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>656</v>
-      </c>
-      <c r="B95" t="s">
-        <v>657</v>
-      </c>
-      <c r="C95" t="s">
-        <v>658</v>
-      </c>
-      <c r="D95" t="s">
-        <v>659</v>
-      </c>
-      <c r="E95" t="s">
-        <v>660</v>
-      </c>
-      <c r="F95" t="s">
-        <v>661</v>
-      </c>
-      <c r="G95" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>663</v>
-      </c>
-      <c r="B96" t="s">
-        <v>664</v>
-      </c>
-      <c r="C96" t="s">
-        <v>665</v>
-      </c>
-      <c r="D96" t="s">
-        <v>666</v>
-      </c>
-      <c r="E96" t="s">
-        <v>667</v>
-      </c>
-      <c r="F96" t="s">
-        <v>668</v>
-      </c>
-      <c r="G96" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>670</v>
-      </c>
-      <c r="B97" t="s">
-        <v>671</v>
-      </c>
-      <c r="C97" t="s">
-        <v>672</v>
-      </c>
-      <c r="D97" t="s">
-        <v>673</v>
-      </c>
-      <c r="E97" t="s">
-        <v>674</v>
-      </c>
-      <c r="F97" t="s">
-        <v>675</v>
-      </c>
-      <c r="G97" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>677</v>
-      </c>
-      <c r="B98" t="s">
-        <v>678</v>
-      </c>
-      <c r="C98" t="s">
-        <v>679</v>
-      </c>
-      <c r="D98" t="s">
-        <v>680</v>
-      </c>
-      <c r="E98" t="s">
-        <v>681</v>
-      </c>
-      <c r="F98" t="s">
-        <v>682</v>
-      </c>
-      <c r="G98" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>684</v>
-      </c>
-      <c r="B99" t="s">
-        <v>685</v>
-      </c>
-      <c r="C99" t="s">
-        <v>686</v>
-      </c>
-      <c r="D99" t="s">
-        <v>687</v>
-      </c>
-      <c r="E99" t="s">
-        <v>688</v>
-      </c>
-      <c r="F99" t="s">
-        <v>689</v>
-      </c>
-      <c r="G99" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>690</v>
-      </c>
-      <c r="B100" t="s">
-        <v>691</v>
-      </c>
-      <c r="C100" t="s">
-        <v>692</v>
-      </c>
-      <c r="D100" t="s">
-        <v>693</v>
-      </c>
-      <c r="E100" t="s">
-        <v>694</v>
-      </c>
-      <c r="F100" t="s">
-        <v>695</v>
-      </c>
-      <c r="G100" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>697</v>
-      </c>
-      <c r="B101" t="s">
-        <v>698</v>
-      </c>
-      <c r="C101" t="s">
-        <v>699</v>
-      </c>
-      <c r="D101" t="s">
-        <v>700</v>
-      </c>
-      <c r="E101" t="s">
-        <v>701</v>
-      </c>
-      <c r="F101" t="s">
-        <v>702</v>
-      </c>
-      <c r="G101" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>704</v>
-      </c>
-      <c r="B102" t="s">
-        <v>705</v>
-      </c>
-      <c r="C102" t="s">
-        <v>706</v>
-      </c>
-      <c r="D102" t="s">
-        <v>707</v>
-      </c>
-      <c r="E102" t="s">
-        <v>708</v>
-      </c>
-      <c r="F102" t="s">
-        <v>709</v>
-      </c>
-      <c r="G102" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>711</v>
-      </c>
-      <c r="B103" t="s">
-        <v>712</v>
-      </c>
-      <c r="C103" t="s">
-        <v>713</v>
-      </c>
-      <c r="D103" t="s">
-        <v>714</v>
-      </c>
-      <c r="E103" t="s">
-        <v>715</v>
-      </c>
-      <c r="F103" t="s">
-        <v>716</v>
-      </c>
-      <c r="G103" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>718</v>
-      </c>
-      <c r="B104" t="s">
-        <v>719</v>
-      </c>
-      <c r="C104" t="s">
-        <v>720</v>
-      </c>
-      <c r="D104" t="s">
-        <v>721</v>
-      </c>
-      <c r="E104" t="s">
-        <v>722</v>
-      </c>
-      <c r="F104" t="s">
-        <v>723</v>
-      </c>
-      <c r="G104" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>724</v>
-      </c>
-      <c r="B105" t="s">
-        <v>725</v>
-      </c>
-      <c r="C105" t="s">
-        <v>726</v>
-      </c>
-      <c r="D105" t="s">
-        <v>727</v>
-      </c>
-      <c r="E105" t="s">
-        <v>728</v>
-      </c>
-      <c r="F105" t="s">
-        <v>729</v>
-      </c>
-      <c r="G105" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>730</v>
-      </c>
-      <c r="B106" t="s">
-        <v>731</v>
-      </c>
-      <c r="C106" t="s">
-        <v>732</v>
-      </c>
-      <c r="D106" t="s">
-        <v>733</v>
-      </c>
-      <c r="E106" t="s">
-        <v>734</v>
-      </c>
-      <c r="F106" t="s">
-        <v>735</v>
-      </c>
-      <c r="G106" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>737</v>
-      </c>
-      <c r="B107" t="s">
-        <v>738</v>
-      </c>
-      <c r="C107" t="s">
-        <v>739</v>
-      </c>
-      <c r="D107" t="s">
-        <v>740</v>
-      </c>
-      <c r="E107" t="s">
-        <v>741</v>
-      </c>
-      <c r="F107" t="s">
-        <v>742</v>
-      </c>
-      <c r="G107" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>744</v>
-      </c>
-      <c r="B108" t="s">
-        <v>745</v>
-      </c>
-      <c r="C108" t="s">
-        <v>746</v>
-      </c>
-      <c r="D108" t="s">
-        <v>747</v>
-      </c>
-      <c r="E108" t="s">
-        <v>748</v>
-      </c>
-      <c r="F108" t="s">
-        <v>749</v>
-      </c>
-      <c r="G108" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>751</v>
-      </c>
-      <c r="B109" t="s">
-        <v>752</v>
-      </c>
-      <c r="C109" t="s">
-        <v>753</v>
-      </c>
-      <c r="D109" t="s">
-        <v>754</v>
-      </c>
-      <c r="E109" t="s">
-        <v>755</v>
-      </c>
-      <c r="F109" t="s">
-        <v>756</v>
-      </c>
-      <c r="G109" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>758</v>
-      </c>
-      <c r="B110" t="s">
-        <v>759</v>
-      </c>
-      <c r="C110" t="s">
-        <v>760</v>
-      </c>
-      <c r="D110" t="s">
-        <v>761</v>
-      </c>
-      <c r="E110" t="s">
-        <v>762</v>
-      </c>
-      <c r="F110" t="s">
-        <v>763</v>
-      </c>
-      <c r="G110" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>765</v>
-      </c>
-      <c r="B111" t="s">
-        <v>766</v>
-      </c>
-      <c r="C111" t="s">
-        <v>767</v>
-      </c>
-      <c r="D111" t="s">
-        <v>768</v>
-      </c>
-      <c r="E111" t="s">
-        <v>769</v>
-      </c>
-      <c r="F111" t="s">
-        <v>770</v>
-      </c>
-      <c r="G111" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>772</v>
-      </c>
-      <c r="B112" t="s">
-        <v>773</v>
-      </c>
-      <c r="C112" t="s">
-        <v>774</v>
-      </c>
-      <c r="D112" t="s">
-        <v>775</v>
-      </c>
-      <c r="E112" t="s">
-        <v>776</v>
-      </c>
-      <c r="F112" t="s">
-        <v>777</v>
-      </c>
-      <c r="G112" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>779</v>
-      </c>
-      <c r="B113" t="s">
-        <v>780</v>
-      </c>
-      <c r="C113" t="s">
-        <v>781</v>
-      </c>
-      <c r="D113" t="s">
-        <v>782</v>
-      </c>
-      <c r="E113" t="s">
-        <v>783</v>
-      </c>
-      <c r="F113" t="s">
-        <v>784</v>
-      </c>
-      <c r="G113" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>786</v>
-      </c>
-      <c r="B114" t="s">
-        <v>787</v>
-      </c>
-      <c r="C114" t="s">
-        <v>788</v>
-      </c>
-      <c r="D114" t="s">
-        <v>789</v>
-      </c>
-      <c r="E114" t="s">
-        <v>790</v>
-      </c>
-      <c r="F114" t="s">
-        <v>791</v>
-      </c>
-      <c r="G114" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>793</v>
-      </c>
-      <c r="B115" t="s">
-        <v>794</v>
-      </c>
-      <c r="C115" t="s">
-        <v>795</v>
-      </c>
-      <c r="D115" t="s">
-        <v>796</v>
-      </c>
-      <c r="E115" t="s">
-        <v>797</v>
-      </c>
-      <c r="F115" t="s">
-        <v>798</v>
-      </c>
-      <c r="G115" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>800</v>
-      </c>
-      <c r="B116" t="s">
-        <v>801</v>
-      </c>
-      <c r="C116" t="s">
-        <v>802</v>
-      </c>
-      <c r="D116" t="s">
-        <v>803</v>
-      </c>
-      <c r="E116" t="s">
-        <v>804</v>
-      </c>
-      <c r="F116" t="s">
-        <v>805</v>
-      </c>
-      <c r="G116" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>807</v>
-      </c>
-      <c r="B117" t="s">
-        <v>808</v>
-      </c>
-      <c r="C117" t="s">
-        <v>809</v>
-      </c>
-      <c r="D117" t="s">
-        <v>810</v>
-      </c>
-      <c r="E117" t="s">
-        <v>811</v>
-      </c>
-      <c r="F117" t="s">
-        <v>812</v>
-      </c>
-      <c r="G117" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
-        <v>814</v>
-      </c>
-      <c r="B118" t="s">
-        <v>815</v>
-      </c>
-      <c r="C118" t="s">
-        <v>816</v>
-      </c>
-      <c r="D118" t="s">
-        <v>817</v>
-      </c>
-      <c r="E118" t="s">
-        <v>818</v>
-      </c>
-      <c r="F118" t="s">
-        <v>819</v>
-      </c>
-      <c r="G118" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>821</v>
-      </c>
-      <c r="B119" t="s">
-        <v>822</v>
-      </c>
-      <c r="C119" t="s">
-        <v>823</v>
-      </c>
-      <c r="D119" t="s">
-        <v>824</v>
-      </c>
-      <c r="E119" t="s">
-        <v>825</v>
-      </c>
-      <c r="F119" t="s">
-        <v>826</v>
-      </c>
-      <c r="G119" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>828</v>
-      </c>
-      <c r="B120" t="s">
-        <v>829</v>
-      </c>
-      <c r="C120" t="s">
-        <v>830</v>
-      </c>
-      <c r="D120" t="s">
-        <v>831</v>
-      </c>
-      <c r="E120" t="s">
-        <v>832</v>
-      </c>
-      <c r="F120" t="s">
-        <v>833</v>
-      </c>
-      <c r="G120" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>835</v>
-      </c>
-      <c r="B121" t="s">
-        <v>836</v>
-      </c>
-      <c r="C121" t="s">
-        <v>837</v>
-      </c>
-      <c r="D121" t="s">
-        <v>838</v>
-      </c>
-      <c r="E121" t="s">
-        <v>839</v>
-      </c>
-      <c r="F121" t="s">
-        <v>840</v>
-      </c>
-      <c r="G121" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>842</v>
-      </c>
-      <c r="B122" t="s">
-        <v>843</v>
-      </c>
-      <c r="C122" t="s">
-        <v>844</v>
-      </c>
-      <c r="D122" t="s">
-        <v>845</v>
-      </c>
-      <c r="E122" t="s">
-        <v>846</v>
-      </c>
-      <c r="F122" t="s">
-        <v>847</v>
-      </c>
-      <c r="G122" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>849</v>
-      </c>
-      <c r="B123" t="s">
-        <v>850</v>
-      </c>
-      <c r="C123" t="s">
-        <v>851</v>
-      </c>
-      <c r="D123" t="s">
-        <v>852</v>
-      </c>
-      <c r="E123" t="s">
-        <v>853</v>
-      </c>
-      <c r="F123" t="s">
-        <v>854</v>
-      </c>
-      <c r="G123" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>856</v>
-      </c>
-      <c r="B124" t="s">
-        <v>857</v>
-      </c>
-      <c r="C124" t="s">
-        <v>858</v>
-      </c>
-      <c r="D124" t="s">
-        <v>859</v>
-      </c>
-      <c r="E124" t="s">
-        <v>860</v>
-      </c>
-      <c r="F124" t="s">
-        <v>861</v>
-      </c>
-      <c r="G124" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>863</v>
-      </c>
-      <c r="B125" t="s">
-        <v>864</v>
-      </c>
-      <c r="C125" t="s">
-        <v>865</v>
-      </c>
-      <c r="D125" t="s">
-        <v>866</v>
-      </c>
-      <c r="E125" t="s">
-        <v>867</v>
-      </c>
-      <c r="F125" t="s">
-        <v>868</v>
-      </c>
-      <c r="G125" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>870</v>
-      </c>
-      <c r="B126" t="s">
-        <v>871</v>
-      </c>
-      <c r="C126" t="s">
-        <v>872</v>
-      </c>
-      <c r="D126" t="s">
-        <v>873</v>
-      </c>
-      <c r="E126" t="s">
-        <v>874</v>
-      </c>
-      <c r="F126" t="s">
-        <v>875</v>
-      </c>
-      <c r="G126" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>877</v>
-      </c>
-      <c r="B127" t="s">
-        <v>878</v>
-      </c>
-      <c r="C127" t="s">
-        <v>879</v>
-      </c>
-      <c r="D127" t="s">
-        <v>880</v>
-      </c>
-      <c r="E127" t="s">
-        <v>881</v>
-      </c>
-      <c r="F127" t="s">
-        <v>882</v>
-      </c>
-      <c r="G127" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>884</v>
-      </c>
-      <c r="B128" t="s">
-        <v>885</v>
-      </c>
-      <c r="C128" t="s">
-        <v>886</v>
-      </c>
-      <c r="D128" t="s">
-        <v>887</v>
-      </c>
-      <c r="E128" t="s">
-        <v>888</v>
-      </c>
-      <c r="F128" t="s">
-        <v>889</v>
-      </c>
-      <c r="G128" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>891</v>
-      </c>
-      <c r="B129" t="s">
-        <v>892</v>
-      </c>
-      <c r="C129" t="s">
-        <v>893</v>
-      </c>
-      <c r="D129" t="s">
-        <v>894</v>
-      </c>
-      <c r="E129" t="s">
-        <v>895</v>
-      </c>
-      <c r="F129" t="s">
-        <v>896</v>
-      </c>
-      <c r="G129" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>898</v>
-      </c>
-      <c r="B130" t="s">
-        <v>899</v>
-      </c>
-      <c r="C130" t="s">
-        <v>900</v>
-      </c>
-      <c r="D130" t="s">
-        <v>901</v>
-      </c>
-      <c r="E130" t="s">
-        <v>902</v>
-      </c>
-      <c r="F130" t="s">
-        <v>903</v>
-      </c>
-      <c r="G130" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>905</v>
-      </c>
-      <c r="B131" t="s">
-        <v>906</v>
-      </c>
-      <c r="C131" t="s">
-        <v>907</v>
-      </c>
-      <c r="D131" t="s">
-        <v>908</v>
-      </c>
-      <c r="E131" t="s">
-        <v>909</v>
-      </c>
-      <c r="F131" t="s">
-        <v>910</v>
-      </c>
       <c r="G131" t="s">
-        <v>911</v>
+        <v>913</v>
+      </c>
+      <c r="H131">
+        <v>0.20923305179789969</v>
       </c>
     </row>
   </sheetData>

--- a/plans.xlsx
+++ b/plans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonPrograms\Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842741F-01F4-4EA1-BA62-DEBAA08D54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0059E-51F0-43DA-A36D-A0387A0DB72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2145" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="915">
   <si>
     <t>taskId</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>oagents_planning_arr</t>
   </si>
   <si>
     <t>human_Planning_arr</t>
@@ -5106,12 +5103,20 @@
   <si>
     <t>tensor([[0.7592]])</t>
   </si>
+  <si>
+    <t>oagents_planning_arr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps_sim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5132,6 +5137,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5141,7 +5153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5164,13 +5176,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5475,19 +5504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5500,3394 +5530,3397 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>0.39983737106375872</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3">
         <v>0.61105237245239741</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
       </c>
       <c r="H4">
         <v>0.41358610255653921</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
       </c>
       <c r="H5">
         <v>0.30288347296873058</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
       </c>
       <c r="H6">
         <v>0.49090772460462562</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <v>0.325403288748986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="H7">
-        <v>0.32540328874898639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
       </c>
       <c r="H8">
         <v>0.53695486117109603</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
       </c>
       <c r="H9">
         <v>0.30320373299521181</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
       </c>
       <c r="H10">
         <v>0.58939132642189884</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
       </c>
       <c r="H11">
         <v>0.66887594950203222</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
       </c>
       <c r="H12">
         <v>0.5228515709819348</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>88</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
       </c>
       <c r="H13">
         <v>0.62992446316119854</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
       </c>
       <c r="H14">
         <v>0.55312630087976122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
       </c>
       <c r="H15">
         <v>0.25422770165172648</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
       </c>
       <c r="H16">
         <v>0.66932121558126079</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>116</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>117</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
       </c>
       <c r="H17">
         <v>0.43069048152864869</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>124</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" t="s">
-        <v>126</v>
       </c>
       <c r="H18">
         <v>0.39245557046077129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>130</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>131</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
       </c>
       <c r="H19">
         <v>0.6031316863169166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
         <v>134</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" t="s">
-        <v>140</v>
       </c>
       <c r="H20">
         <v>0.49009442898195338</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
         <v>141</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>142</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>144</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>145</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>146</v>
-      </c>
-      <c r="G21" t="s">
-        <v>147</v>
       </c>
       <c r="H21">
         <v>0.43082219529267801</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
         <v>148</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>149</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>150</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>151</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>152</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" t="s">
-        <v>154</v>
       </c>
       <c r="H22">
         <v>0.41671930917468142</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
         <v>155</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>157</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>158</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>159</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" t="s">
-        <v>161</v>
       </c>
       <c r="H23">
         <v>0.68869094050972779</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
         <v>162</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>163</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>164</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>165</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>166</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" t="s">
-        <v>168</v>
       </c>
       <c r="H24">
         <v>0.42950540125557168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
         <v>169</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>170</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>171</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>172</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>173</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" t="s">
-        <v>175</v>
       </c>
       <c r="H25">
         <v>0.51382983367712631</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
         <v>176</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>177</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>178</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>179</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>180</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" t="s">
-        <v>182</v>
       </c>
       <c r="H26">
         <v>0.70061172858707976</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
         <v>183</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>184</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>185</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>186</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>187</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" t="s">
-        <v>189</v>
       </c>
       <c r="H27">
         <v>0.67103741923118154</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
         <v>190</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>191</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>192</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>193</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>194</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>195</v>
-      </c>
-      <c r="G28" t="s">
-        <v>196</v>
       </c>
       <c r="H28">
         <v>0.61622025848841788</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" t="s">
         <v>197</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>198</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>199</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>200</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>201</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" t="s">
-        <v>203</v>
       </c>
       <c r="H29">
         <v>0.58465855717131754</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
         <v>204</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>205</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>206</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>207</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>209</v>
-      </c>
-      <c r="G30" t="s">
-        <v>210</v>
       </c>
       <c r="H30">
         <v>0.29741558508008248</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" t="s">
         <v>211</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>212</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>213</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>214</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>215</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>216</v>
-      </c>
-      <c r="G31" t="s">
-        <v>217</v>
       </c>
       <c r="H31">
         <v>0.53861785620393698</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s">
         <v>218</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>219</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>220</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>221</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>222</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>223</v>
-      </c>
-      <c r="G32" t="s">
-        <v>224</v>
       </c>
       <c r="H32">
         <v>0.65846879845466499</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
         <v>225</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>226</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>227</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>228</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>229</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>230</v>
-      </c>
-      <c r="G33" t="s">
-        <v>231</v>
       </c>
       <c r="H33">
         <v>0.50181524031112656</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
         <v>232</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>233</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>234</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>235</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>236</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>237</v>
-      </c>
-      <c r="G34" t="s">
-        <v>238</v>
       </c>
       <c r="H34">
         <v>0.4485566103440134</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
         <v>239</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>240</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>241</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>242</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>243</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>244</v>
-      </c>
-      <c r="G35" t="s">
-        <v>245</v>
       </c>
       <c r="H35">
         <v>0.57856675480169406</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
         <v>246</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>247</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>248</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>249</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>250</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>251</v>
-      </c>
-      <c r="G36" t="s">
-        <v>252</v>
       </c>
       <c r="H36">
         <v>0.23257174673827219</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
         <v>253</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>254</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>255</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>256</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>257</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>258</v>
-      </c>
-      <c r="G37" t="s">
-        <v>259</v>
       </c>
       <c r="H37">
         <v>0.47386011422050012</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
         <v>260</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>261</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>262</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>263</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>264</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>265</v>
-      </c>
-      <c r="G38" t="s">
-        <v>266</v>
       </c>
       <c r="H38">
         <v>0.60872989562140534</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
         <v>267</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>268</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>269</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>270</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>271</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>272</v>
-      </c>
-      <c r="G39" t="s">
-        <v>273</v>
       </c>
       <c r="H39">
         <v>0.52264079632278049</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" t="s">
         <v>274</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>275</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>276</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>277</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>278</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>279</v>
-      </c>
-      <c r="G40" t="s">
-        <v>280</v>
       </c>
       <c r="H40">
         <v>0.58222169181238226</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" t="s">
         <v>281</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>282</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>283</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>284</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>285</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>286</v>
-      </c>
-      <c r="G41" t="s">
-        <v>287</v>
       </c>
       <c r="H41">
         <v>0.48942725955997041</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" t="s">
         <v>288</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>289</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>290</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>291</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>292</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>293</v>
-      </c>
-      <c r="G42" t="s">
-        <v>294</v>
       </c>
       <c r="H42">
         <v>0.54477745837210423</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" t="s">
         <v>295</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>296</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>297</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>298</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>299</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>300</v>
-      </c>
-      <c r="G43" t="s">
-        <v>301</v>
       </c>
       <c r="H43">
         <v>0.57462312334533261</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
         <v>302</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>303</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>304</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>305</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>306</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>307</v>
-      </c>
-      <c r="G44" t="s">
-        <v>308</v>
       </c>
       <c r="H44">
         <v>0.46394630424724231</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" t="s">
         <v>309</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>310</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>311</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>312</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>313</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>314</v>
-      </c>
-      <c r="G45" t="s">
-        <v>315</v>
       </c>
       <c r="H45">
         <v>0.42014614330981698</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" t="s">
         <v>316</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>317</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>318</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>319</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>320</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>321</v>
-      </c>
-      <c r="G46" t="s">
-        <v>322</v>
       </c>
       <c r="H46">
         <v>0.4107202457593459</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" t="s">
         <v>323</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>324</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>325</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>326</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>327</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>328</v>
-      </c>
-      <c r="G47" t="s">
-        <v>329</v>
       </c>
       <c r="H47">
         <v>0.58620967484593278</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" t="s">
         <v>330</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>331</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>332</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>333</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>334</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>335</v>
-      </c>
-      <c r="G48" t="s">
-        <v>336</v>
       </c>
       <c r="H48">
         <v>0.60408026722668673</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" t="s">
         <v>337</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>338</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>339</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>340</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>341</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>342</v>
-      </c>
-      <c r="G49" t="s">
-        <v>343</v>
       </c>
       <c r="H49">
         <v>0.63598502080503239</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" t="s">
         <v>344</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>345</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>346</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>347</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>348</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>349</v>
-      </c>
-      <c r="G50" t="s">
-        <v>350</v>
       </c>
       <c r="H50">
         <v>0.46353007091387649</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" t="s">
         <v>351</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>352</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>353</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>354</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>356</v>
-      </c>
-      <c r="G51" t="s">
-        <v>357</v>
       </c>
       <c r="H51">
         <v>0.45100808392920938</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" t="s">
         <v>358</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>359</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>360</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>361</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>362</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>363</v>
-      </c>
-      <c r="G52" t="s">
-        <v>364</v>
       </c>
       <c r="H52">
         <v>0.54676087101167914</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" t="s">
         <v>365</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>366</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>367</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>368</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>369</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>370</v>
-      </c>
-      <c r="G53" t="s">
-        <v>371</v>
       </c>
       <c r="H53">
         <v>0.30182233723816371</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" t="s">
         <v>372</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>373</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>374</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>375</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>376</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>377</v>
-      </c>
-      <c r="G54" t="s">
-        <v>378</v>
       </c>
       <c r="H54">
         <v>0.44571172807720372</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B55" t="s">
         <v>379</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>380</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>381</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>382</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>383</v>
       </c>
-      <c r="F55" t="s">
-        <v>384</v>
-      </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H55">
         <v>0.39748830901651339</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" t="s">
         <v>385</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>386</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>387</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>388</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>389</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>390</v>
-      </c>
-      <c r="G56" t="s">
-        <v>391</v>
       </c>
       <c r="H56">
         <v>0.45620191602893911</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>391</v>
+      </c>
+      <c r="B57" t="s">
         <v>392</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>393</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>394</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>395</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>396</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>397</v>
-      </c>
-      <c r="G57" t="s">
-        <v>398</v>
       </c>
       <c r="H57">
         <v>0.60167451968863805</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>398</v>
+      </c>
+      <c r="B58" t="s">
         <v>399</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>400</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>401</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>402</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>403</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>404</v>
-      </c>
-      <c r="G58" t="s">
-        <v>405</v>
       </c>
       <c r="H58">
         <v>0.31320311480281948</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" t="s">
         <v>406</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>407</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>408</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>409</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>410</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>411</v>
-      </c>
-      <c r="G59" t="s">
-        <v>412</v>
       </c>
       <c r="H59">
         <v>0.43223419286295123</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>412</v>
+      </c>
+      <c r="B60" t="s">
         <v>413</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>414</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>415</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>416</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>417</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>418</v>
-      </c>
-      <c r="G60" t="s">
-        <v>419</v>
       </c>
       <c r="H60">
         <v>0.51179772130935597</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" t="s">
         <v>420</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>421</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>422</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>423</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>424</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>425</v>
-      </c>
-      <c r="G61" t="s">
-        <v>426</v>
       </c>
       <c r="H61">
         <v>0.53277321970332547</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B62" t="s">
         <v>427</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>428</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>429</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>430</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>431</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>432</v>
-      </c>
-      <c r="G62" t="s">
-        <v>433</v>
       </c>
       <c r="H62">
         <v>0.61800263504524455</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63" t="s">
         <v>434</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>435</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>436</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>437</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>438</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>439</v>
-      </c>
-      <c r="G63" t="s">
-        <v>440</v>
       </c>
       <c r="H63">
         <v>0.51534709759412733</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" t="s">
         <v>441</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>442</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>443</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>444</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>445</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>446</v>
-      </c>
-      <c r="G64" t="s">
-        <v>447</v>
       </c>
       <c r="H64">
         <v>0.33015338589752757</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>447</v>
+      </c>
+      <c r="B65" t="s">
         <v>448</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>449</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>450</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>451</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>452</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>453</v>
-      </c>
-      <c r="G65" t="s">
-        <v>454</v>
       </c>
       <c r="H65">
         <v>0.41036029249874573</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" t="s">
         <v>455</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>456</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>457</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>458</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>459</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>460</v>
-      </c>
-      <c r="G66" t="s">
-        <v>461</v>
       </c>
       <c r="H66">
         <v>0.50055117230887702</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" t="s">
         <v>462</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>463</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>464</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>465</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>466</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>467</v>
-      </c>
-      <c r="G67" t="s">
-        <v>468</v>
       </c>
       <c r="H67">
         <v>0.56220403774572303</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>468</v>
+      </c>
+      <c r="B68" t="s">
         <v>469</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>470</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>471</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>472</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>473</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>474</v>
-      </c>
-      <c r="G68" t="s">
-        <v>475</v>
       </c>
       <c r="H68">
         <v>0.57799365648984191</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>475</v>
+      </c>
+      <c r="B69" t="s">
         <v>476</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>477</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>478</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>479</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>480</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>481</v>
-      </c>
-      <c r="G69" t="s">
-        <v>482</v>
       </c>
       <c r="H69">
         <v>0.42707256009315242</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>482</v>
+      </c>
+      <c r="B70" t="s">
         <v>483</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>484</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>485</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>486</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>487</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>488</v>
-      </c>
-      <c r="G70" t="s">
-        <v>489</v>
       </c>
       <c r="H70">
         <v>0.44331440269334249</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>489</v>
+      </c>
+      <c r="B71" t="s">
         <v>490</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>491</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>492</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>493</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>494</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>495</v>
-      </c>
-      <c r="G71" t="s">
-        <v>496</v>
       </c>
       <c r="H71">
         <v>0.74147878799791367</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B72" t="s">
         <v>497</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>498</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>499</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>500</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>501</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>502</v>
-      </c>
-      <c r="G72" t="s">
-        <v>503</v>
       </c>
       <c r="H72">
         <v>0.51753124582129495</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>503</v>
+      </c>
+      <c r="B73" t="s">
         <v>504</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>505</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>506</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>507</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>508</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>509</v>
-      </c>
-      <c r="G73" t="s">
-        <v>510</v>
       </c>
       <c r="H73">
         <v>0.41184440134606942</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>510</v>
+      </c>
+      <c r="B74" t="s">
         <v>511</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>512</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>513</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>514</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>515</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>516</v>
-      </c>
-      <c r="G74" t="s">
-        <v>517</v>
       </c>
       <c r="H74">
         <v>0.5063200254858331</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>517</v>
+      </c>
+      <c r="B75" t="s">
         <v>518</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>519</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>520</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>521</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>522</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>523</v>
-      </c>
-      <c r="G75" t="s">
-        <v>524</v>
       </c>
       <c r="H75">
         <v>0.45047305288152728</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>524</v>
+      </c>
+      <c r="B76" t="s">
         <v>525</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>526</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>527</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>528</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>529</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>530</v>
-      </c>
-      <c r="G76" t="s">
-        <v>531</v>
       </c>
       <c r="H76">
         <v>0.58357230425454321</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>531</v>
+      </c>
+      <c r="B77" t="s">
         <v>532</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>533</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>534</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>535</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>536</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>537</v>
-      </c>
-      <c r="G77" t="s">
-        <v>538</v>
       </c>
       <c r="H77">
         <v>0.4001035091372323</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" t="s">
         <v>539</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>540</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>541</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>542</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>543</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>544</v>
-      </c>
-      <c r="G78" t="s">
-        <v>545</v>
       </c>
       <c r="H78">
         <v>0.45457197039287051</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>545</v>
+      </c>
+      <c r="B79" t="s">
         <v>546</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>547</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>548</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>549</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>550</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>551</v>
-      </c>
-      <c r="G79" t="s">
-        <v>552</v>
       </c>
       <c r="H79">
         <v>0.48064518569429387</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>552</v>
+      </c>
+      <c r="B80" t="s">
         <v>553</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>554</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>555</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>556</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>557</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>558</v>
-      </c>
-      <c r="G80" t="s">
-        <v>559</v>
       </c>
       <c r="H80">
         <v>0.32585861389537918</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>559</v>
+      </c>
+      <c r="B81" t="s">
         <v>560</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>561</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>562</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>563</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>564</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>565</v>
-      </c>
-      <c r="G81" t="s">
-        <v>566</v>
       </c>
       <c r="H81">
         <v>0.55544327107414126</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>566</v>
+      </c>
+      <c r="B82" t="s">
         <v>567</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>568</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>569</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>570</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>571</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>572</v>
-      </c>
-      <c r="G82" t="s">
-        <v>573</v>
       </c>
       <c r="H82">
         <v>0.47272425104407911</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>573</v>
+      </c>
+      <c r="B83" t="s">
         <v>574</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>575</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>576</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>577</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>578</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>579</v>
-      </c>
-      <c r="G83" t="s">
-        <v>580</v>
       </c>
       <c r="H83">
         <v>0.43129395453510683</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>580</v>
+      </c>
+      <c r="B84" t="s">
         <v>581</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>582</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>583</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>584</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>585</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>586</v>
-      </c>
-      <c r="G84" t="s">
-        <v>587</v>
       </c>
       <c r="H84">
         <v>0.53597999829061738</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>587</v>
+      </c>
+      <c r="B85" t="s">
         <v>588</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>589</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>590</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>591</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>592</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>593</v>
-      </c>
-      <c r="G85" t="s">
-        <v>594</v>
       </c>
       <c r="H85">
         <v>0.46432408056522129</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>594</v>
+      </c>
+      <c r="B86" t="s">
         <v>595</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>596</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>597</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>598</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>599</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>600</v>
-      </c>
-      <c r="G86" t="s">
-        <v>601</v>
       </c>
       <c r="H86">
         <v>0.53044521244568721</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>601</v>
+      </c>
+      <c r="B87" t="s">
         <v>602</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>603</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>604</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>605</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>606</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>607</v>
-      </c>
-      <c r="G87" t="s">
-        <v>608</v>
       </c>
       <c r="H87">
         <v>0.62064774877967255</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>608</v>
+      </c>
+      <c r="B88" t="s">
         <v>609</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>610</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>611</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>612</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>613</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>614</v>
-      </c>
-      <c r="G88" t="s">
-        <v>615</v>
       </c>
       <c r="H88">
         <v>0.53761911328121292</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>615</v>
+      </c>
+      <c r="B89" t="s">
         <v>616</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>617</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>618</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>619</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>620</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>621</v>
-      </c>
-      <c r="G89" t="s">
-        <v>622</v>
       </c>
       <c r="H89">
         <v>0.47290003932327851</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>622</v>
+      </c>
+      <c r="B90" t="s">
         <v>623</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>624</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>625</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>626</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>627</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>628</v>
-      </c>
-      <c r="G90" t="s">
-        <v>629</v>
       </c>
       <c r="H90">
         <v>0.55667941413989086</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>629</v>
+      </c>
+      <c r="B91" t="s">
         <v>630</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>631</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>632</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>633</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>634</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>635</v>
-      </c>
-      <c r="G91" t="s">
-        <v>636</v>
       </c>
       <c r="H91">
         <v>0.65950095323163771</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>636</v>
+      </c>
+      <c r="B92" t="s">
         <v>637</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>638</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>639</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>640</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>641</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>642</v>
-      </c>
-      <c r="G92" t="s">
-        <v>643</v>
       </c>
       <c r="H92">
         <v>0.58954159040734644</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>643</v>
+      </c>
+      <c r="B93" t="s">
         <v>644</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>645</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>646</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>647</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>648</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>649</v>
-      </c>
-      <c r="G93" t="s">
-        <v>650</v>
       </c>
       <c r="H93">
         <v>0.37012888155614321</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>650</v>
+      </c>
+      <c r="B94" t="s">
         <v>651</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>652</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>653</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>654</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>655</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>656</v>
-      </c>
-      <c r="G94" t="s">
-        <v>657</v>
       </c>
       <c r="H94">
         <v>0.49883328800567822</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>657</v>
+      </c>
+      <c r="B95" t="s">
         <v>658</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>659</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>660</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>661</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>662</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>663</v>
-      </c>
-      <c r="G95" t="s">
-        <v>664</v>
       </c>
       <c r="H95">
         <v>0.58421740634818597</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>664</v>
+      </c>
+      <c r="B96" t="s">
         <v>665</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>666</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>667</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>668</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>669</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>670</v>
-      </c>
-      <c r="G96" t="s">
-        <v>671</v>
       </c>
       <c r="H96">
         <v>0.31746560868593648</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>671</v>
+      </c>
+      <c r="B97" t="s">
         <v>672</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>673</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>674</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>675</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>676</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>677</v>
-      </c>
-      <c r="G97" t="s">
-        <v>678</v>
       </c>
       <c r="H97">
         <v>0.5419015180665705</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>678</v>
+      </c>
+      <c r="B98" t="s">
         <v>679</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>680</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>681</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>682</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>683</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>684</v>
-      </c>
-      <c r="G98" t="s">
-        <v>685</v>
       </c>
       <c r="H98">
         <v>0.31409969876311222</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>685</v>
+      </c>
+      <c r="B99" t="s">
         <v>686</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>687</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>688</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>689</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>690</v>
       </c>
-      <c r="F99" t="s">
-        <v>691</v>
-      </c>
       <c r="G99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H99">
         <v>0.31183953944355691</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>691</v>
+      </c>
+      <c r="B100" t="s">
         <v>692</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>693</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>694</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>695</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>696</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>697</v>
-      </c>
-      <c r="G100" t="s">
-        <v>698</v>
       </c>
       <c r="H100">
         <v>0.44305754853085139</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>698</v>
+      </c>
+      <c r="B101" t="s">
         <v>699</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>700</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>701</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>702</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>703</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>704</v>
-      </c>
-      <c r="G101" t="s">
-        <v>705</v>
       </c>
       <c r="H101">
         <v>0.63838418865023683</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>705</v>
+      </c>
+      <c r="B102" t="s">
         <v>706</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>707</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>708</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>709</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>710</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>711</v>
-      </c>
-      <c r="G102" t="s">
-        <v>712</v>
       </c>
       <c r="H102">
         <v>0.63220414703478556</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>712</v>
+      </c>
+      <c r="B103" t="s">
         <v>713</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>714</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>715</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>716</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>717</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>718</v>
-      </c>
-      <c r="G103" t="s">
-        <v>719</v>
       </c>
       <c r="H103">
         <v>0.6741471078464536</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>719</v>
+      </c>
+      <c r="B104" t="s">
         <v>720</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>721</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>722</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>723</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>724</v>
       </c>
-      <c r="F104" t="s">
-        <v>725</v>
-      </c>
       <c r="G104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H104">
         <v>0.50923441535442404</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>725</v>
+      </c>
+      <c r="B105" t="s">
         <v>726</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>727</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>728</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>729</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>730</v>
       </c>
-      <c r="F105" t="s">
-        <v>731</v>
-      </c>
       <c r="G105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H105">
         <v>0.31235449816232791</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>731</v>
+      </c>
+      <c r="B106" t="s">
         <v>732</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>733</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>734</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>735</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>736</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>737</v>
-      </c>
-      <c r="G106" t="s">
-        <v>738</v>
       </c>
       <c r="H106">
         <v>0.43593487194800629</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>738</v>
+      </c>
+      <c r="B107" t="s">
         <v>739</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>740</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>741</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>742</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>743</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>744</v>
-      </c>
-      <c r="G107" t="s">
-        <v>745</v>
       </c>
       <c r="H107">
         <v>0.37269996754581908</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>745</v>
+      </c>
+      <c r="B108" t="s">
         <v>746</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>747</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>748</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>749</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>750</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>751</v>
-      </c>
-      <c r="G108" t="s">
-        <v>752</v>
       </c>
       <c r="H108">
         <v>0.51517377453502722</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>752</v>
+      </c>
+      <c r="B109" t="s">
         <v>753</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>754</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>755</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>756</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>757</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>758</v>
-      </c>
-      <c r="G109" t="s">
-        <v>759</v>
       </c>
       <c r="H109">
         <v>0.33897234483487132</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>759</v>
+      </c>
+      <c r="B110" t="s">
         <v>760</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>761</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>762</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>763</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>764</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>765</v>
-      </c>
-      <c r="G110" t="s">
-        <v>766</v>
       </c>
       <c r="H110">
         <v>0.61534878707847762</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>766</v>
+      </c>
+      <c r="B111" t="s">
         <v>767</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>768</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>769</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>770</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>771</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>772</v>
-      </c>
-      <c r="G111" t="s">
-        <v>773</v>
       </c>
       <c r="H111">
         <v>0.71658224145142002</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>773</v>
+      </c>
+      <c r="B112" t="s">
         <v>774</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>775</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>776</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>777</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>778</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>779</v>
-      </c>
-      <c r="G112" t="s">
-        <v>780</v>
       </c>
       <c r="H112">
         <v>0.61452668750865425</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>780</v>
+      </c>
+      <c r="B113" t="s">
         <v>781</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>782</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>783</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>784</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>785</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>786</v>
-      </c>
-      <c r="G113" t="s">
-        <v>787</v>
       </c>
       <c r="H113">
         <v>0.36876058668405343</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>787</v>
+      </c>
+      <c r="B114" t="s">
         <v>788</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>789</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>790</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>791</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>792</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>793</v>
-      </c>
-      <c r="G114" t="s">
-        <v>794</v>
       </c>
       <c r="H114">
         <v>0.19248241008208081</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>794</v>
+      </c>
+      <c r="B115" t="s">
         <v>795</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>796</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>797</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>798</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>799</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>800</v>
-      </c>
-      <c r="G115" t="s">
-        <v>801</v>
       </c>
       <c r="H115">
         <v>0.51193753665228214</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>801</v>
+      </c>
+      <c r="B116" t="s">
         <v>802</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>803</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>804</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>805</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>806</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>807</v>
-      </c>
-      <c r="G116" t="s">
-        <v>808</v>
       </c>
       <c r="H116">
         <v>0.33698494295430809</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>808</v>
+      </c>
+      <c r="B117" t="s">
         <v>809</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>810</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>811</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>812</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>813</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>814</v>
-      </c>
-      <c r="G117" t="s">
-        <v>815</v>
       </c>
       <c r="H117">
         <v>0.25425946239316338</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>815</v>
+      </c>
+      <c r="B118" t="s">
         <v>816</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>817</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>818</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>819</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>820</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>821</v>
-      </c>
-      <c r="G118" t="s">
-        <v>822</v>
       </c>
       <c r="H118">
         <v>0.41029069980089661</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>822</v>
+      </c>
+      <c r="B119" t="s">
         <v>823</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>824</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>825</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>826</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>827</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>828</v>
-      </c>
-      <c r="G119" t="s">
-        <v>829</v>
       </c>
       <c r="H119">
         <v>0.43809343940642792</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>829</v>
+      </c>
+      <c r="B120" t="s">
         <v>830</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>831</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>832</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>833</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>834</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>835</v>
-      </c>
-      <c r="G120" t="s">
-        <v>836</v>
       </c>
       <c r="H120">
         <v>0.56939501813569982</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>836</v>
+      </c>
+      <c r="B121" t="s">
         <v>837</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>838</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>839</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>840</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>841</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>842</v>
-      </c>
-      <c r="G121" t="s">
-        <v>843</v>
       </c>
       <c r="H121">
         <v>0.54214617864320891</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>843</v>
+      </c>
+      <c r="B122" t="s">
         <v>844</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>845</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>846</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>847</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>848</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>849</v>
-      </c>
-      <c r="G122" t="s">
-        <v>850</v>
       </c>
       <c r="H122">
         <v>0.61137765250616427</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>850</v>
+      </c>
+      <c r="B123" t="s">
         <v>851</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>852</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>853</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>854</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>855</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>856</v>
-      </c>
-      <c r="G123" t="s">
-        <v>857</v>
       </c>
       <c r="H123">
         <v>0.48564595616197431</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>857</v>
+      </c>
+      <c r="B124" t="s">
         <v>858</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>859</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>860</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>861</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>862</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>863</v>
-      </c>
-      <c r="G124" t="s">
-        <v>864</v>
       </c>
       <c r="H124">
         <v>0.4037731788497344</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>864</v>
+      </c>
+      <c r="B125" t="s">
         <v>865</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>866</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>867</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>868</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>869</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>870</v>
-      </c>
-      <c r="G125" t="s">
-        <v>871</v>
       </c>
       <c r="H125">
         <v>0.36004605159329062</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>871</v>
+      </c>
+      <c r="B126" t="s">
         <v>872</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>873</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>874</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>875</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>876</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>877</v>
-      </c>
-      <c r="G126" t="s">
-        <v>878</v>
       </c>
       <c r="H126">
         <v>0.60612017385399897</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>878</v>
+      </c>
+      <c r="B127" t="s">
         <v>879</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>880</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>881</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>882</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>883</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>884</v>
-      </c>
-      <c r="G127" t="s">
-        <v>885</v>
       </c>
       <c r="H127">
         <v>0.6237300581939309</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>885</v>
+      </c>
+      <c r="B128" t="s">
         <v>886</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>887</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>888</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>889</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>890</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>891</v>
-      </c>
-      <c r="G128" t="s">
-        <v>892</v>
       </c>
       <c r="H128">
         <v>0.50974268760994468</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>892</v>
+      </c>
+      <c r="B129" t="s">
         <v>893</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>894</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>895</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>896</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>897</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>898</v>
-      </c>
-      <c r="G129" t="s">
-        <v>899</v>
       </c>
       <c r="H129">
         <v>0.47531777815289938</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>899</v>
+      </c>
+      <c r="B130" t="s">
         <v>900</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>901</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>902</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>903</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>904</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>905</v>
-      </c>
-      <c r="G130" t="s">
-        <v>906</v>
       </c>
       <c r="H130">
         <v>0.49046101067019399</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>906</v>
+      </c>
+      <c r="B131" t="s">
         <v>907</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>908</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>909</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>910</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>911</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>912</v>
-      </c>
-      <c r="G131" t="s">
-        <v>913</v>
       </c>
       <c r="H131">
         <v>0.20923305179789969</v>
